--- a/trial/MeoDemo_Final/ImportFiles/Manual_Balance_202104_Added_Working_Paypay_202011_Done.xlsx
+++ b/trial/MeoDemo_Final/ImportFiles/Manual_Balance_202104_Added_Working_Paypay_202011_Done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhphan/PycharmProjects/HomeAccounting/trial/MeoDemo_Final/ImportFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CCAAD-E329-D841-9D71-21527FEAE210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E76E6F-A34D-FB44-BC00-AF05C5A4E388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="10140" windowWidth="30120" windowHeight="20980" activeTab="1" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
+    <workbookView xWindow="4780" yWindow="6220" windowWidth="30120" windowHeight="20980" xr2:uid="{211A79C5-B985-E94E-B0C1-2BF2BF8B9373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2236,6 +2236,8 @@
     <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="22" xr:uid="{5B033929-96AA-4032-910B-BB88D3D3D7A2}"/>
@@ -2596,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C746422B-7B49-664B-A814-9E0769654701}">
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView topLeftCell="A883" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E904" sqref="A4:E904"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2711,8 +2713,8 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
-        <v>44011</v>
+      <c r="A4" s="94">
+        <v>43829</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -2745,8 +2747,8 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
-        <v>44011</v>
+      <c r="A5" s="94">
+        <v>43829</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -2779,7 +2781,7 @@
         <v>119</v>
       </c>
       <c r="L5" s="10">
-        <f>SUMIF(D:D,$K5,I:I)</f>
+        <f t="shared" ref="L5:L16" si="1">SUMIF(D:D,$K5,I:I)</f>
         <v>339418</v>
       </c>
       <c r="M5" s="73">
@@ -2795,8 +2797,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>44196</v>
+      <c r="A6" s="95">
+        <v>43829</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -2829,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="L6" s="10">
-        <f>SUMIF(D:D,$K6,I:I)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" t="s">
@@ -2841,8 +2843,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>44196</v>
+      <c r="A7" s="95">
+        <v>43829</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -2875,7 +2877,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="48">
-        <f>SUMIF(D:D,$K7,I:I)</f>
+        <f t="shared" si="1"/>
         <v>99656173</v>
       </c>
       <c r="M7" s="73">
@@ -2891,8 +2893,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <v>44011</v>
+      <c r="A8" s="94">
+        <v>43829</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
@@ -2925,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="10">
-        <f>SUMIF(D:D,$K8,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11618680</v>
       </c>
       <c r="M8" s="73">
@@ -2934,8 +2936,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>43891</v>
+      <c r="A9" s="95">
+        <v>43829</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -2969,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="L9" s="10">
-        <f>SUMIF(D:D,$K9,I:I)</f>
+        <f t="shared" si="1"/>
         <v>16700</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <v>44011</v>
+      <c r="A10" s="94">
+        <v>43829</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>15</v>
@@ -3008,7 +3010,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="10">
-        <f>SUMIF(D:D,$K10,I:I)</f>
+        <f t="shared" si="1"/>
         <v>40418</v>
       </c>
       <c r="M10" s="79">
@@ -3017,8 +3019,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>43922</v>
+      <c r="A11" s="95">
+        <v>43829</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -3051,7 +3053,7 @@
         <v>120</v>
       </c>
       <c r="L11" s="48">
-        <f>SUMIF(D:D,$K11,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11000898</v>
       </c>
       <c r="M11" s="73">
@@ -3060,8 +3062,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>44086</v>
+      <c r="A12" s="95">
+        <v>43829</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>15</v>
@@ -3094,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="10">
-        <f>SUMIF(D:D,$K12,I:I)</f>
+        <f t="shared" si="1"/>
         <v>1932</v>
       </c>
     </row>
@@ -3133,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="48">
-        <f>SUMIF(D:D,$K13,I:I)</f>
+        <f t="shared" si="1"/>
         <v>17175</v>
       </c>
       <c r="M13" s="73">
@@ -3173,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="10">
-        <f>SUMIF(D:D,$K14,I:I)</f>
+        <f t="shared" si="1"/>
         <v>8700</v>
       </c>
     </row>
@@ -3209,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="L15" s="2">
-        <f>SUMIF(D:D,$K15,I:I)</f>
+        <f t="shared" si="1"/>
         <v>615171</v>
       </c>
       <c r="M15" s="79">
@@ -3249,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="2">
-        <f>SUMIF(D:D,$K16,I:I)</f>
+        <f t="shared" si="1"/>
         <v>10571</v>
       </c>
     </row>
@@ -5048,7 +5050,7 @@
         <v>Out</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" ref="I80:I82" si="1">IF(G80="Out",C80*-1,C80)</f>
+        <f t="shared" ref="I80:I82" si="2">IF(G80="Out",C80*-1,C80)</f>
         <v>-15697</v>
       </c>
     </row>
@@ -5073,7 +5075,7 @@
         <v>Out</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-15697</v>
       </c>
     </row>
@@ -5098,7 +5100,7 @@
         <v>In</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15697</v>
       </c>
     </row>
@@ -5151,7 +5153,7 @@
         <v>In</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" ref="I84:I85" si="2">IF(G84="Out",C84*-1,C84)</f>
+        <f t="shared" ref="I84:I85" si="3">IF(G84="Out",C84*-1,C84)</f>
         <v>107</v>
       </c>
     </row>
@@ -5179,7 +5181,7 @@
         <v>Out</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-107</v>
       </c>
     </row>
@@ -5354,7 +5356,7 @@
         <v>In</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" ref="I92:I123" si="3">IF(G92="Out",C92*-1,C92)</f>
+        <f t="shared" ref="I92:I123" si="4">IF(G92="Out",C92*-1,C92)</f>
         <v>218389</v>
       </c>
     </row>
@@ -5380,7 +5382,7 @@
         <v>In</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
@@ -5406,7 +5408,7 @@
         <v>Out</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10000</v>
       </c>
     </row>
@@ -5431,7 +5433,7 @@
         <v>In</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
@@ -5456,7 +5458,7 @@
         <v>Out</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2000</v>
       </c>
     </row>
@@ -5481,7 +5483,7 @@
         <v>Out</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-200000</v>
       </c>
     </row>
@@ -5506,7 +5508,7 @@
         <v>In</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
     </row>
@@ -5531,7 +5533,7 @@
         <v>Out</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3600</v>
       </c>
     </row>
@@ -5556,7 +5558,7 @@
         <v>In</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
     </row>
@@ -5581,7 +5583,7 @@
         <v>Out</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2000</v>
       </c>
     </row>
@@ -5609,7 +5611,7 @@
         <v>Out</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -5637,7 +5639,7 @@
         <v>In</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24000</v>
       </c>
     </row>
@@ -5662,7 +5664,7 @@
         <v>Out</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-20000</v>
       </c>
     </row>
@@ -5687,7 +5689,7 @@
         <v>In</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
     </row>
@@ -5713,7 +5715,7 @@
         <v>Out</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5000</v>
       </c>
     </row>
@@ -5739,7 +5741,7 @@
         <v>In</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>768138</v>
       </c>
     </row>
@@ -5765,7 +5767,7 @@
         <v>Out</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-121000</v>
       </c>
     </row>
@@ -5790,7 +5792,7 @@
         <v>Out</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-77000</v>
       </c>
     </row>
@@ -5815,7 +5817,7 @@
         <v>Out</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11980</v>
       </c>
     </row>
@@ -5840,7 +5842,7 @@
         <v>Out</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3722</v>
       </c>
     </row>
@@ -5865,7 +5867,7 @@
         <v>Out</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-727</v>
       </c>
     </row>
@@ -5890,7 +5892,7 @@
         <v>In</v>
       </c>
       <c r="I113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>727</v>
       </c>
     </row>
@@ -5915,7 +5917,7 @@
         <v>Out</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-727</v>
       </c>
     </row>
@@ -5940,7 +5942,7 @@
         <v>Out</v>
       </c>
       <c r="I115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-21184</v>
       </c>
     </row>
@@ -5965,7 +5967,7 @@
         <v>Out</v>
       </c>
       <c r="I116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-980</v>
       </c>
     </row>
@@ -5990,7 +5992,7 @@
         <v>Out</v>
       </c>
       <c r="I117" s="7">
-        <f t="shared" ref="I117:I118" si="4">IF(G117="Out",C117*-1,C117)</f>
+        <f t="shared" ref="I117:I118" si="5">IF(G117="Out",C117*-1,C117)</f>
         <v>-6956</v>
       </c>
     </row>
@@ -6015,7 +6017,7 @@
         <v>In</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6956</v>
       </c>
     </row>
@@ -6065,7 +6067,7 @@
         <v>Out</v>
       </c>
       <c r="I120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-106604</v>
       </c>
     </row>
@@ -6090,7 +6092,7 @@
         <v>Out</v>
       </c>
       <c r="I121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6115,7 +6117,7 @@
         <v>Out</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1518</v>
       </c>
     </row>
@@ -6140,7 +6142,7 @@
         <v>In</v>
       </c>
       <c r="I123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1518</v>
       </c>
     </row>
@@ -6217,7 +6219,7 @@
         <v>Out</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" ref="I126:I140" si="5">IF(G126="Out",C126*-1,C126)</f>
+        <f t="shared" ref="I126:I140" si="6">IF(G126="Out",C126*-1,C126)</f>
         <v>-10000</v>
       </c>
     </row>
@@ -6242,7 +6244,7 @@
         <v>Out</v>
       </c>
       <c r="I127" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-24200</v>
       </c>
     </row>
@@ -6270,7 +6272,7 @@
         <v>In</v>
       </c>
       <c r="I128" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
     </row>
@@ -6298,7 +6300,7 @@
         <v>Out</v>
       </c>
       <c r="I129" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-107</v>
       </c>
     </row>
@@ -6323,7 +6325,7 @@
         <v>In</v>
       </c>
       <c r="I130" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165260</v>
       </c>
     </row>
@@ -6348,7 +6350,7 @@
         <v>In</v>
       </c>
       <c r="I131" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
@@ -6373,7 +6375,7 @@
         <v>Out</v>
       </c>
       <c r="I132" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-397156</v>
       </c>
     </row>
@@ -6398,7 +6400,7 @@
         <v>In</v>
       </c>
       <c r="I133" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>397156</v>
       </c>
     </row>
@@ -6423,7 +6425,7 @@
         <v>Out</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2000</v>
       </c>
     </row>
@@ -6451,7 +6453,7 @@
         <v>Out</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-30000</v>
       </c>
     </row>
@@ -6479,7 +6481,7 @@
         <v>In</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
     </row>
@@ -6507,7 +6509,7 @@
         <v>Out</v>
       </c>
       <c r="I137" s="7">
-        <f t="shared" ref="I137:I138" si="6">IF(G137="Out",C137*-1,C137)</f>
+        <f t="shared" ref="I137:I138" si="7">IF(G137="Out",C137*-1,C137)</f>
         <v>-74000</v>
       </c>
     </row>
@@ -6535,7 +6537,7 @@
         <v>In</v>
       </c>
       <c r="I138" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74000</v>
       </c>
     </row>
@@ -6560,7 +6562,7 @@
         <v>Out</v>
       </c>
       <c r="I139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-20000</v>
       </c>
     </row>
@@ -6585,7 +6587,7 @@
         <v>In</v>
       </c>
       <c r="I140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
     </row>
@@ -6610,7 +6612,7 @@
         <v>In</v>
       </c>
       <c r="I141" s="7">
-        <f t="shared" ref="I141:I204" si="7">IF(G141="Out",C141*-1,C141)</f>
+        <f t="shared" ref="I141:I204" si="8">IF(G141="Out",C141*-1,C141)</f>
         <v>50</v>
       </c>
     </row>
@@ -6635,7 +6637,7 @@
         <v>In</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
@@ -6660,7 +6662,7 @@
         <v>Out</v>
       </c>
       <c r="I143" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2771</v>
       </c>
       <c r="K143" s="2"/>
@@ -6686,7 +6688,7 @@
         <v>Out</v>
       </c>
       <c r="I144" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2190</v>
       </c>
       <c r="K144" s="2"/>
@@ -6712,7 +6714,7 @@
         <v>Out</v>
       </c>
       <c r="I145" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4761</v>
       </c>
       <c r="K145" s="9"/>
@@ -6738,7 +6740,7 @@
         <v>Out</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6401</v>
       </c>
       <c r="K146" s="9"/>
@@ -6764,7 +6766,7 @@
         <v>Out</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2728</v>
       </c>
       <c r="K147" s="9"/>
@@ -6790,7 +6792,7 @@
         <v>Out</v>
       </c>
       <c r="I148" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4615</v>
       </c>
       <c r="K148" s="2"/>
@@ -6816,7 +6818,7 @@
         <v>Out</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3875</v>
       </c>
       <c r="K149" s="2"/>
@@ -6842,7 +6844,7 @@
         <v>Out</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2276</v>
       </c>
       <c r="K150" s="2"/>
@@ -6868,7 +6870,7 @@
         <v>Out</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-429</v>
       </c>
       <c r="K151" s="2"/>
@@ -6894,7 +6896,7 @@
         <v>Out</v>
       </c>
       <c r="I152" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-800</v>
       </c>
       <c r="K152" s="4"/>
@@ -6920,7 +6922,7 @@
         <v>Out</v>
       </c>
       <c r="I153" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5753</v>
       </c>
       <c r="K153" s="2"/>
@@ -6946,7 +6948,7 @@
         <v>Out</v>
       </c>
       <c r="I154" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2379</v>
       </c>
       <c r="K154" s="2"/>
@@ -6972,7 +6974,7 @@
         <v>Out</v>
       </c>
       <c r="I155" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10000</v>
       </c>
       <c r="K155" s="2"/>
@@ -6998,7 +7000,7 @@
         <v>In</v>
       </c>
       <c r="I156" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="K156" s="2"/>
@@ -7024,7 +7026,7 @@
         <v>Out</v>
       </c>
       <c r="I157" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2409</v>
       </c>
       <c r="K157" s="2"/>
@@ -7050,7 +7052,7 @@
         <v>Out</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1000</v>
       </c>
       <c r="K158" s="2"/>
@@ -7076,7 +7078,7 @@
         <v>Out</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1000</v>
       </c>
       <c r="K159" s="2"/>
@@ -7102,7 +7104,7 @@
         <v>In</v>
       </c>
       <c r="I160" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="K160" s="2"/>
@@ -7128,7 +7130,7 @@
         <v>Out</v>
       </c>
       <c r="I161" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-590</v>
       </c>
       <c r="K161" s="2"/>
@@ -7154,7 +7156,7 @@
         <v>In</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>590</v>
       </c>
       <c r="K162" s="2"/>
@@ -7180,7 +7182,7 @@
         <v>Out</v>
       </c>
       <c r="I163" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-660</v>
       </c>
       <c r="K163" s="2"/>
@@ -7206,7 +7208,7 @@
         <v>Out</v>
       </c>
       <c r="I164" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3268</v>
       </c>
       <c r="K164" s="2"/>
@@ -7232,7 +7234,7 @@
         <v>Out</v>
       </c>
       <c r="I165" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1200</v>
       </c>
       <c r="K165" s="2"/>
@@ -7258,7 +7260,7 @@
         <v>Out</v>
       </c>
       <c r="I166" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2210</v>
       </c>
       <c r="K166" s="2"/>
@@ -7284,7 +7286,7 @@
         <v>In</v>
       </c>
       <c r="I167" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="K167" s="2"/>
@@ -7310,7 +7312,7 @@
         <v>Out</v>
       </c>
       <c r="I168" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2400</v>
       </c>
       <c r="K168" s="2"/>
@@ -7336,7 +7338,7 @@
         <v>Out</v>
       </c>
       <c r="I169" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2400</v>
       </c>
     </row>
@@ -7361,7 +7363,7 @@
         <v>In</v>
       </c>
       <c r="I170" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2400</v>
       </c>
     </row>
@@ -7386,7 +7388,7 @@
         <v>Out</v>
       </c>
       <c r="I171" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6955</v>
       </c>
     </row>
@@ -7411,7 +7413,7 @@
         <v>Out</v>
       </c>
       <c r="I172" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1100</v>
       </c>
     </row>
@@ -7436,7 +7438,7 @@
         <v>In</v>
       </c>
       <c r="I173" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
     </row>
@@ -7461,7 +7463,7 @@
         <v>Out</v>
       </c>
       <c r="I174" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1100</v>
       </c>
     </row>
@@ -7486,7 +7488,7 @@
         <v>Out</v>
       </c>
       <c r="I175" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9550</v>
       </c>
     </row>
@@ -7511,7 +7513,7 @@
         <v>Out</v>
       </c>
       <c r="I176" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3522</v>
       </c>
     </row>
@@ -7536,7 +7538,7 @@
         <v>Out</v>
       </c>
       <c r="I177" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2303</v>
       </c>
     </row>
@@ -7561,7 +7563,7 @@
         <v>In</v>
       </c>
       <c r="I178" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2410</v>
       </c>
     </row>
@@ -7586,7 +7588,7 @@
         <v>Out</v>
       </c>
       <c r="I179" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2925</v>
       </c>
     </row>
@@ -7611,7 +7613,7 @@
         <v>Out</v>
       </c>
       <c r="I180" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2530</v>
       </c>
     </row>
@@ -7636,7 +7638,7 @@
         <v>Out</v>
       </c>
       <c r="I181" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1480</v>
       </c>
     </row>
@@ -7661,7 +7663,7 @@
         <v>Out</v>
       </c>
       <c r="I182" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3098</v>
       </c>
     </row>
@@ -7686,7 +7688,7 @@
         <v>Out</v>
       </c>
       <c r="I183" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4280</v>
       </c>
     </row>
@@ -7711,7 +7713,7 @@
         <v>In</v>
       </c>
       <c r="I184" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
     </row>
@@ -7736,7 +7738,7 @@
         <v>Out</v>
       </c>
       <c r="I185" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-240</v>
       </c>
     </row>
@@ -7761,7 +7763,7 @@
         <v>Out</v>
       </c>
       <c r="I186" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-319</v>
       </c>
     </row>
@@ -7786,7 +7788,7 @@
         <v>Out</v>
       </c>
       <c r="I187" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3000</v>
       </c>
     </row>
@@ -7811,7 +7813,7 @@
         <v>In</v>
       </c>
       <c r="I188" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -7836,7 +7838,7 @@
         <v>Out</v>
       </c>
       <c r="I189" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2798</v>
       </c>
     </row>
@@ -7861,7 +7863,7 @@
         <v>Out</v>
       </c>
       <c r="I190" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-20000</v>
       </c>
     </row>
@@ -7886,7 +7888,7 @@
         <v>In</v>
       </c>
       <c r="I191" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
     </row>
@@ -7911,7 +7913,7 @@
         <v>In</v>
       </c>
       <c r="I192" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
     </row>
@@ -7936,7 +7938,7 @@
         <v>Out</v>
       </c>
       <c r="I193" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2602</v>
       </c>
     </row>
@@ -7961,7 +7963,7 @@
         <v>Out</v>
       </c>
       <c r="I194" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-158</v>
       </c>
     </row>
@@ -7986,7 +7988,7 @@
         <v>Out</v>
       </c>
       <c r="I195" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2048</v>
       </c>
     </row>
@@ -8011,7 +8013,7 @@
         <v>Out</v>
       </c>
       <c r="I196" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1650</v>
       </c>
     </row>
@@ -8036,7 +8038,7 @@
         <v>Out</v>
       </c>
       <c r="I197" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12793</v>
       </c>
     </row>
@@ -8061,7 +8063,7 @@
         <v>Out</v>
       </c>
       <c r="I198" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11533</v>
       </c>
     </row>
@@ -8086,7 +8088,7 @@
         <v>Out</v>
       </c>
       <c r="I199" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2500</v>
       </c>
     </row>
@@ -8111,7 +8113,7 @@
         <v>Out</v>
       </c>
       <c r="I200" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1270</v>
       </c>
     </row>
@@ -8136,7 +8138,7 @@
         <v>Out</v>
       </c>
       <c r="I201" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-900</v>
       </c>
     </row>
@@ -8161,7 +8163,7 @@
         <v>Out</v>
       </c>
       <c r="I202" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-900</v>
       </c>
     </row>
@@ -8189,7 +8191,7 @@
         <v>109</v>
       </c>
       <c r="I203" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6408</v>
       </c>
     </row>
@@ -8214,7 +8216,7 @@
         <v>In</v>
       </c>
       <c r="I204" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
     </row>
@@ -8239,7 +8241,7 @@
         <v>In</v>
       </c>
       <c r="I205" s="7">
-        <f t="shared" ref="I205:I221" si="8">IF(G205="Out",C205*-1,C205)</f>
+        <f t="shared" ref="I205:I221" si="9">IF(G205="Out",C205*-1,C205)</f>
         <v>2400</v>
       </c>
     </row>
@@ -8264,7 +8266,7 @@
         <v>In</v>
       </c>
       <c r="I206" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
     </row>
@@ -8289,7 +8291,7 @@
         <v>In</v>
       </c>
       <c r="I207" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5600</v>
       </c>
     </row>
@@ -8314,7 +8316,7 @@
         <v>In</v>
       </c>
       <c r="I208" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3060</v>
       </c>
     </row>
@@ -8339,7 +8341,7 @@
         <v>In</v>
       </c>
       <c r="I209" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3123</v>
       </c>
     </row>
@@ -8364,7 +8366,7 @@
         <v>In</v>
       </c>
       <c r="I210" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2013</v>
       </c>
     </row>
@@ -8389,7 +8391,7 @@
         <v>In</v>
       </c>
       <c r="I211" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>961</v>
       </c>
     </row>
@@ -8414,7 +8416,7 @@
         <v>In</v>
       </c>
       <c r="I212" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
     </row>
@@ -8439,7 +8441,7 @@
         <v>Out</v>
       </c>
       <c r="I213" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
     </row>
@@ -8464,7 +8466,7 @@
         <v>Out</v>
       </c>
       <c r="I214" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-10000</v>
       </c>
     </row>
@@ -8489,7 +8491,7 @@
         <v>In</v>
       </c>
       <c r="I215" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
     </row>
@@ -8514,7 +8516,7 @@
         <v>Out</v>
       </c>
       <c r="I216" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-12000</v>
       </c>
     </row>
@@ -8539,7 +8541,7 @@
         <v>Out</v>
       </c>
       <c r="I217" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
     </row>
@@ -8564,7 +8566,7 @@
         <v>Out</v>
       </c>
       <c r="I218" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
     </row>
@@ -8589,7 +8591,7 @@
         <v>Out</v>
       </c>
       <c r="I219" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-32842</v>
       </c>
     </row>
@@ -8614,7 +8616,7 @@
         <v>In</v>
       </c>
       <c r="I220" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1419</v>
       </c>
     </row>
@@ -8639,7 +8641,7 @@
         <v>Out</v>
       </c>
       <c r="I221" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1419</v>
       </c>
     </row>
@@ -8664,7 +8666,7 @@
         <v>In</v>
       </c>
       <c r="I222" s="7">
-        <f t="shared" ref="I222:I229" si="9">IF(G222="Out",C222*-1,C222)</f>
+        <f t="shared" ref="I222:I229" si="10">IF(G222="Out",C222*-1,C222)</f>
         <v>11055</v>
       </c>
     </row>
@@ -8689,7 +8691,7 @@
         <v>Out</v>
       </c>
       <c r="I223" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-11055</v>
       </c>
     </row>
@@ -8714,7 +8716,7 @@
         <v>In</v>
       </c>
       <c r="I224" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1617</v>
       </c>
     </row>
@@ -8741,7 +8743,7 @@
       </c>
       <c r="H225" s="25"/>
       <c r="I225" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1617</v>
       </c>
       <c r="L225" s="28"/>
@@ -8768,7 +8770,7 @@
         <v>In</v>
       </c>
       <c r="I226" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3649</v>
       </c>
     </row>
@@ -8794,7 +8796,7 @@
         <v>Out</v>
       </c>
       <c r="I227" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5000</v>
       </c>
     </row>
@@ -8820,7 +8822,7 @@
         <v>In</v>
       </c>
       <c r="I228" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>883903</v>
       </c>
     </row>
@@ -8846,7 +8848,7 @@
         <v>Out</v>
       </c>
       <c r="I229" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-121000</v>
       </c>
     </row>
@@ -8871,7 +8873,7 @@
         <v>Out</v>
       </c>
       <c r="I230" s="7">
-        <f t="shared" ref="I230:I234" si="10">IF(G230="Out",C230*-1,C230)</f>
+        <f t="shared" ref="I230:I234" si="11">IF(G230="Out",C230*-1,C230)</f>
         <v>-4631</v>
       </c>
     </row>
@@ -8896,7 +8898,7 @@
         <v>Out</v>
       </c>
       <c r="I231" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3649</v>
       </c>
     </row>
@@ -8921,7 +8923,7 @@
         <v>Out</v>
       </c>
       <c r="I232" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-72125</v>
       </c>
     </row>
@@ -8946,7 +8948,7 @@
         <v>Out</v>
       </c>
       <c r="I233" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-41270</v>
       </c>
     </row>
@@ -8971,7 +8973,7 @@
         <v>Out</v>
       </c>
       <c r="I234" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-235</v>
       </c>
       <c r="J234" s="31" t="s">
@@ -8999,7 +9001,7 @@
         <v>Out</v>
       </c>
       <c r="I235" s="7">
-        <f t="shared" ref="I235:I251" si="11">IF(G235="Out",C235*-1,C235)</f>
+        <f t="shared" ref="I235:I251" si="12">IF(G235="Out",C235*-1,C235)</f>
         <v>-13200</v>
       </c>
     </row>
@@ -9027,7 +9029,7 @@
         <v>In</v>
       </c>
       <c r="I236" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
     </row>
@@ -9055,7 +9057,7 @@
         <v>Out</v>
       </c>
       <c r="I237" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-58</v>
       </c>
     </row>
@@ -9080,7 +9082,7 @@
         <v>In</v>
       </c>
       <c r="I238" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9105,7 +9107,7 @@
         <v>Out</v>
       </c>
       <c r="I239" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-43929</v>
       </c>
     </row>
@@ -9130,7 +9132,7 @@
         <v>In</v>
       </c>
       <c r="I240" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43929</v>
       </c>
     </row>
@@ -9155,7 +9157,7 @@
         <v>In</v>
       </c>
       <c r="I241" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>197041</v>
       </c>
     </row>
@@ -9180,7 +9182,7 @@
         <v>Out</v>
       </c>
       <c r="I242" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-402200</v>
       </c>
     </row>
@@ -9205,7 +9207,7 @@
         <v>In</v>
       </c>
       <c r="I243" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1767</v>
       </c>
     </row>
@@ -9230,7 +9232,7 @@
         <v>Out</v>
       </c>
       <c r="I244" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1767</v>
       </c>
     </row>
@@ -9255,7 +9257,7 @@
         <v>Out</v>
       </c>
       <c r="I245" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2502200</v>
       </c>
     </row>
@@ -9280,7 +9282,7 @@
         <v>In</v>
       </c>
       <c r="I246" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10992</v>
       </c>
     </row>
@@ -9305,7 +9307,7 @@
         <v>Out</v>
       </c>
       <c r="I247" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-10992</v>
       </c>
     </row>
@@ -9330,7 +9332,7 @@
         <v>In</v>
       </c>
       <c r="I248" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2900000</v>
       </c>
     </row>
@@ -9355,7 +9357,7 @@
         <v>Out</v>
       </c>
       <c r="I249" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-12739</v>
       </c>
     </row>
@@ -9380,7 +9382,7 @@
         <v>In</v>
       </c>
       <c r="I250" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12739</v>
       </c>
     </row>
@@ -9405,7 +9407,7 @@
         <v>In</v>
       </c>
       <c r="I251" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>123151</v>
       </c>
     </row>
@@ -9430,7 +9432,7 @@
         <v>Out</v>
       </c>
       <c r="I252" s="7">
-        <f t="shared" ref="I252:I257" si="12">IF(G252="Out",C252*-1,C252)</f>
+        <f t="shared" ref="I252:I257" si="13">IF(G252="Out",C252*-1,C252)</f>
         <v>-502200</v>
       </c>
     </row>
@@ -9455,7 +9457,7 @@
         <v>Out</v>
       </c>
       <c r="I253" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2500</v>
       </c>
     </row>
@@ -9480,7 +9482,7 @@
         <v>In</v>
       </c>
       <c r="I254" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2500</v>
       </c>
     </row>
@@ -9505,7 +9507,7 @@
         <v>In</v>
       </c>
       <c r="I255" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>577</v>
       </c>
       <c r="J255" s="31" t="s">
@@ -9533,7 +9535,7 @@
         <v>Out</v>
       </c>
       <c r="I256" s="7">
-        <f t="shared" ref="I256" si="13">IF(G256="Out",C256*-1,C256)</f>
+        <f t="shared" ref="I256" si="14">IF(G256="Out",C256*-1,C256)</f>
         <v>-300</v>
       </c>
     </row>
@@ -9558,7 +9560,7 @@
         <v>In</v>
       </c>
       <c r="I257" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
     </row>
@@ -9584,7 +9586,7 @@
         <v>In</v>
       </c>
       <c r="I258" s="7">
-        <f t="shared" ref="I258:I285" si="14">IF(G258="Out",C258*-1,C258)</f>
+        <f t="shared" ref="I258:I285" si="15">IF(G258="Out",C258*-1,C258)</f>
         <v>10000</v>
       </c>
     </row>
@@ -9610,7 +9612,7 @@
         <v>Out</v>
       </c>
       <c r="I259" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10000</v>
       </c>
     </row>
@@ -9635,7 +9637,7 @@
         <v>Out</v>
       </c>
       <c r="I260" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-673729</v>
       </c>
     </row>
@@ -9662,7 +9664,7 @@
       </c>
       <c r="H261" s="38"/>
       <c r="I261" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>673729</v>
       </c>
       <c r="L261" s="40"/>
@@ -9689,7 +9691,7 @@
         <v>Out</v>
       </c>
       <c r="I262" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-176390</v>
       </c>
     </row>
@@ -9714,7 +9716,7 @@
         <v>Out</v>
       </c>
       <c r="I263" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-440</v>
       </c>
     </row>
@@ -9739,7 +9741,7 @@
         <v>Out</v>
       </c>
       <c r="I264" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10000</v>
       </c>
     </row>
@@ -9765,7 +9767,7 @@
         <v>Out</v>
       </c>
       <c r="I265" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-5000</v>
       </c>
     </row>
@@ -9790,7 +9792,7 @@
         <v>In</v>
       </c>
       <c r="I266" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50500</v>
       </c>
     </row>
@@ -9816,7 +9818,7 @@
         <v>In</v>
       </c>
       <c r="I267" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>641923</v>
       </c>
     </row>
@@ -9842,7 +9844,7 @@
         <v>Out</v>
       </c>
       <c r="I268" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-121000</v>
       </c>
     </row>
@@ -9867,7 +9869,7 @@
         <v>Out</v>
       </c>
       <c r="I269" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-11986</v>
       </c>
     </row>
@@ -9892,7 +9894,7 @@
         <v>Out</v>
       </c>
       <c r="I270" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-107</v>
       </c>
     </row>
@@ -9917,7 +9919,7 @@
         <v>Out</v>
       </c>
       <c r="I271" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-78829</v>
       </c>
     </row>
@@ -9942,7 +9944,7 @@
         <v>Out</v>
       </c>
       <c r="I272" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-49412</v>
       </c>
     </row>
@@ -9967,7 +9969,7 @@
         <v>Out</v>
       </c>
       <c r="I273" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1130</v>
       </c>
     </row>
@@ -9992,7 +9994,7 @@
         <v>Out</v>
       </c>
       <c r="I274" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-24200</v>
       </c>
     </row>
@@ -10020,7 +10022,7 @@
         <v>In</v>
       </c>
       <c r="I275" s="7">
-        <f t="shared" ref="I275" si="15">IF(G275="Out",C275*-1,C275)</f>
+        <f t="shared" ref="I275" si="16">IF(G275="Out",C275*-1,C275)</f>
         <v>111</v>
       </c>
     </row>
@@ -10048,7 +10050,7 @@
         <v>Out</v>
       </c>
       <c r="I276" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-111</v>
       </c>
     </row>
@@ -10073,7 +10075,7 @@
         <v>In</v>
       </c>
       <c r="I277" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>196423</v>
       </c>
     </row>
@@ -10098,7 +10100,7 @@
         <v>Out</v>
       </c>
       <c r="I278" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2000</v>
       </c>
     </row>
@@ -10123,7 +10125,7 @@
         <v>In</v>
       </c>
       <c r="I279" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2000</v>
       </c>
     </row>
@@ -10148,7 +10150,7 @@
         <v>In</v>
       </c>
       <c r="I280" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>217425</v>
       </c>
     </row>
@@ -10173,7 +10175,7 @@
         <v>In</v>
       </c>
       <c r="I281" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>135890</v>
       </c>
     </row>
@@ -10198,7 +10200,7 @@
         <v>In</v>
       </c>
       <c r="I282" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
     </row>
@@ -10224,7 +10226,7 @@
         <v>In</v>
       </c>
       <c r="I283" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
     </row>
@@ -10250,7 +10252,7 @@
         <v>Out</v>
       </c>
       <c r="I284" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10000</v>
       </c>
     </row>
@@ -10275,7 +10277,7 @@
         <v>Out</v>
       </c>
       <c r="I285" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-239255</v>
       </c>
     </row>
@@ -10302,7 +10304,7 @@
       </c>
       <c r="H286" s="47"/>
       <c r="I286" s="47">
-        <f t="shared" ref="I286" si="16">IF(G286="Out",C286*-1,C286)</f>
+        <f t="shared" ref="I286" si="17">IF(G286="Out",C286*-1,C286)</f>
         <v>239255</v>
       </c>
     </row>
@@ -10327,7 +10329,7 @@
         <v>Out</v>
       </c>
       <c r="I287" s="7">
-        <f t="shared" ref="I287:I291" si="17">IF(G287="Out",C287*-1,C287)</f>
+        <f t="shared" ref="I287:I291" si="18">IF(G287="Out",C287*-1,C287)</f>
         <v>-8290</v>
       </c>
       <c r="J287" s="87" t="s">
@@ -10356,7 +10358,7 @@
         <v>Out</v>
       </c>
       <c r="I288" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5000</v>
       </c>
       <c r="J288" s="87" t="s">
@@ -10384,7 +10386,7 @@
         <v>In</v>
       </c>
       <c r="I289" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>60000</v>
       </c>
     </row>
@@ -10410,7 +10412,7 @@
         <v>In</v>
       </c>
       <c r="I290" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>579566</v>
       </c>
     </row>
@@ -10436,7 +10438,7 @@
         <v>Out</v>
       </c>
       <c r="I291" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-121000</v>
       </c>
     </row>
@@ -10461,7 +10463,7 @@
         <v>Out</v>
       </c>
       <c r="I292" s="7">
-        <f t="shared" ref="I292:I293" si="18">IF(G292="Out",C292*-1,C292)</f>
+        <f t="shared" ref="I292:I293" si="19">IF(G292="Out",C292*-1,C292)</f>
         <v>-8122</v>
       </c>
     </row>
@@ -10486,7 +10488,7 @@
         <v>Out</v>
       </c>
       <c r="I293" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-321</v>
       </c>
     </row>
@@ -10511,7 +10513,7 @@
         <v>Out</v>
       </c>
       <c r="I294" s="7">
-        <f t="shared" ref="I294" si="19">IF(G294="Out",C294*-1,C294)</f>
+        <f t="shared" ref="I294" si="20">IF(G294="Out",C294*-1,C294)</f>
         <v>-71210</v>
       </c>
     </row>
@@ -10536,7 +10538,7 @@
         <v>Out</v>
       </c>
       <c r="I295" s="7">
-        <f t="shared" ref="I295:I303" si="20">IF(G295="Out",C295*-1,C295)</f>
+        <f t="shared" ref="I295:I303" si="21">IF(G295="Out",C295*-1,C295)</f>
         <v>-70035</v>
       </c>
     </row>
@@ -10561,7 +10563,7 @@
         <v>Out</v>
       </c>
       <c r="I296" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-9130</v>
       </c>
     </row>
@@ -10586,7 +10588,7 @@
         <v>Out</v>
       </c>
       <c r="I297" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-22000</v>
       </c>
     </row>
@@ -10614,7 +10616,7 @@
         <v>In</v>
       </c>
       <c r="I298" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>97</v>
       </c>
     </row>
@@ -10642,7 +10644,7 @@
         <v>Out</v>
       </c>
       <c r="I299" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-97</v>
       </c>
     </row>
@@ -10667,7 +10669,7 @@
         <v>Out</v>
       </c>
       <c r="I300" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2502200</v>
       </c>
     </row>
@@ -10692,7 +10694,7 @@
         <v>In</v>
       </c>
       <c r="I301" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11077</v>
       </c>
     </row>
@@ -10717,7 +10719,7 @@
         <v>Out</v>
       </c>
       <c r="I302" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-11077</v>
       </c>
     </row>
@@ -10742,7 +10744,7 @@
         <v>In</v>
       </c>
       <c r="I303" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>365904</v>
       </c>
     </row>
@@ -10767,7 +10769,7 @@
         <v>Out</v>
       </c>
       <c r="I304" s="7">
-        <f t="shared" ref="I304:I312" si="21">IF(G304="Out",C304*-1,C304)</f>
+        <f t="shared" ref="I304:I312" si="22">IF(G304="Out",C304*-1,C304)</f>
         <v>-227200</v>
       </c>
     </row>
@@ -10792,7 +10794,7 @@
         <v>In</v>
       </c>
       <c r="I305" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1006</v>
       </c>
     </row>
@@ -10817,7 +10819,7 @@
         <v>Out</v>
       </c>
       <c r="I306" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1006</v>
       </c>
     </row>
@@ -10842,7 +10844,7 @@
         <v>Out</v>
       </c>
       <c r="I307" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-302200</v>
       </c>
     </row>
@@ -10867,7 +10869,7 @@
         <v>Out</v>
       </c>
       <c r="I308" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1338</v>
       </c>
     </row>
@@ -10892,7 +10894,7 @@
         <v>In</v>
       </c>
       <c r="I309" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1338</v>
       </c>
     </row>
@@ -10918,7 +10920,7 @@
         <v>In</v>
       </c>
       <c r="I310" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10000</v>
       </c>
     </row>
@@ -10944,7 +10946,7 @@
         <v>Out</v>
       </c>
       <c r="I311" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-10000</v>
       </c>
     </row>
@@ -10969,7 +10971,7 @@
         <v>Out</v>
       </c>
       <c r="I312" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-340681</v>
       </c>
     </row>
@@ -10994,7 +10996,7 @@
         <v>Out</v>
       </c>
       <c r="I313" s="7">
-        <f t="shared" ref="I313:I334" si="22">IF(G313="Out",C313*-1,C313)</f>
+        <f t="shared" ref="I313:I334" si="23">IF(G313="Out",C313*-1,C313)</f>
         <v>-3000</v>
       </c>
     </row>
@@ -11021,7 +11023,7 @@
       </c>
       <c r="H314" s="47"/>
       <c r="I314" s="47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>340681</v>
       </c>
     </row>
@@ -11046,7 +11048,7 @@
         <v>Out</v>
       </c>
       <c r="I315" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-9000</v>
       </c>
       <c r="J315" s="31" t="s">
@@ -11075,7 +11077,7 @@
         <v>Out</v>
       </c>
       <c r="I316" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-5000</v>
       </c>
     </row>
@@ -11101,7 +11103,7 @@
         <v>In</v>
       </c>
       <c r="I317" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>578945</v>
       </c>
     </row>
@@ -11127,7 +11129,7 @@
         <v>Out</v>
       </c>
       <c r="I318" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-121000</v>
       </c>
     </row>
@@ -11152,7 +11154,7 @@
         <v>Out</v>
       </c>
       <c r="I319" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-9444</v>
       </c>
     </row>
@@ -11177,7 +11179,7 @@
         <v>In</v>
       </c>
       <c r="I320" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>588</v>
       </c>
     </row>
@@ -11202,7 +11204,7 @@
         <v>Out</v>
       </c>
       <c r="I321" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-48259</v>
       </c>
     </row>
@@ -11227,7 +11229,7 @@
         <v>Out</v>
       </c>
       <c r="I322" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-124900</v>
       </c>
     </row>
@@ -11252,7 +11254,7 @@
         <v>Out</v>
       </c>
       <c r="I323" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-130</v>
       </c>
     </row>
@@ -11277,7 +11279,7 @@
         <v>In</v>
       </c>
       <c r="I324" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
     </row>
@@ -11302,7 +11304,7 @@
         <v>Out</v>
       </c>
       <c r="I325" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-26400</v>
       </c>
     </row>
@@ -11330,7 +11332,7 @@
         <v>In</v>
       </c>
       <c r="I326" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>118</v>
       </c>
     </row>
@@ -11358,7 +11360,7 @@
         <v>Out</v>
       </c>
       <c r="I327" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-118</v>
       </c>
     </row>
@@ -11383,7 +11385,7 @@
         <v>In</v>
       </c>
       <c r="I328" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>377147</v>
       </c>
     </row>
@@ -11408,7 +11410,7 @@
         <v>Out</v>
       </c>
       <c r="I329" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1252200</v>
       </c>
     </row>
@@ -11433,7 +11435,7 @@
         <v>In</v>
       </c>
       <c r="I330" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5606</v>
       </c>
     </row>
@@ -11458,7 +11460,7 @@
         <v>Out</v>
       </c>
       <c r="I331" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-5606</v>
       </c>
     </row>
@@ -11484,7 +11486,7 @@
         <v>In</v>
       </c>
       <c r="I332" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10000</v>
       </c>
     </row>
@@ -11510,7 +11512,7 @@
         <v>Out</v>
       </c>
       <c r="I333" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-10000</v>
       </c>
     </row>
@@ -11535,7 +11537,7 @@
         <v>Out</v>
       </c>
       <c r="I334" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-250785</v>
       </c>
     </row>
@@ -11562,7 +11564,7 @@
       </c>
       <c r="H335" s="47"/>
       <c r="I335" s="47">
-        <f t="shared" ref="I335:I336" si="23">IF(G335="Out",C335*-1,C335)</f>
+        <f t="shared" ref="I335:I336" si="24">IF(G335="Out",C335*-1,C335)</f>
         <v>250785</v>
       </c>
     </row>
@@ -11587,7 +11589,7 @@
         <v>In</v>
       </c>
       <c r="I336" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5168</v>
       </c>
       <c r="J336" s="81" t="s">
@@ -11617,7 +11619,7 @@
       </c>
       <c r="H337" s="66"/>
       <c r="I337" s="66">
-        <f t="shared" ref="I337:I349" si="24">IF(G337="Out",C337*-1,C337)</f>
+        <f t="shared" ref="I337:I349" si="25">IF(G337="Out",C337*-1,C337)</f>
         <v>-5168</v>
       </c>
       <c r="J337" s="81" t="s">
@@ -11645,7 +11647,7 @@
         <v>Out</v>
       </c>
       <c r="I338" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5000</v>
       </c>
     </row>
@@ -11670,7 +11672,7 @@
         <v>In</v>
       </c>
       <c r="I339" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>580421</v>
       </c>
     </row>
@@ -11695,7 +11697,7 @@
         <v>Out</v>
       </c>
       <c r="I340" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-121000</v>
       </c>
     </row>
@@ -11720,7 +11722,7 @@
         <v>Out</v>
       </c>
       <c r="I341" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-14076</v>
       </c>
     </row>
@@ -11745,7 +11747,7 @@
         <v>Out</v>
       </c>
       <c r="I342" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-10117</v>
       </c>
     </row>
@@ -11770,7 +11772,7 @@
         <v>Out</v>
       </c>
       <c r="I343" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-58557</v>
       </c>
     </row>
@@ -11795,7 +11797,7 @@
         <v>Out</v>
       </c>
       <c r="I344" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-58500</v>
       </c>
     </row>
@@ -11820,7 +11822,7 @@
         <v>Out</v>
       </c>
       <c r="I345" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-27181</v>
       </c>
     </row>
@@ -11845,7 +11847,7 @@
         <v>Out</v>
       </c>
       <c r="I346" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-17529</v>
       </c>
     </row>
@@ -11870,7 +11872,7 @@
         <v>Out</v>
       </c>
       <c r="I347" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1125000</v>
       </c>
     </row>
@@ -11895,7 +11897,7 @@
         <v>In</v>
       </c>
       <c r="I348" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5500</v>
       </c>
     </row>
@@ -11920,7 +11922,7 @@
         <v>Out</v>
       </c>
       <c r="I349" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5500</v>
       </c>
     </row>
@@ -11945,7 +11947,7 @@
         <v>Out</v>
       </c>
       <c r="I350" s="7">
-        <f t="shared" ref="I350:I357" si="25">IF(G350="Out",C350*-1,C350)</f>
+        <f t="shared" ref="I350:I357" si="26">IF(G350="Out",C350*-1,C350)</f>
         <v>-1125000</v>
       </c>
     </row>
@@ -11970,7 +11972,7 @@
         <v>In</v>
       </c>
       <c r="I351" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5082</v>
       </c>
     </row>
@@ -11995,7 +11997,7 @@
         <v>Out</v>
       </c>
       <c r="I352" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-5082</v>
       </c>
     </row>
@@ -12020,7 +12022,7 @@
         <v>Out</v>
       </c>
       <c r="I353" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-73733</v>
       </c>
     </row>
@@ -12048,7 +12050,7 @@
         <v>In</v>
       </c>
       <c r="I354" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>333</v>
       </c>
     </row>
@@ -12076,7 +12078,7 @@
         <v>Out</v>
       </c>
       <c r="I355" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-333</v>
       </c>
     </row>
@@ -12101,7 +12103,7 @@
         <v>In</v>
       </c>
       <c r="I356" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>167260</v>
       </c>
     </row>
@@ -12126,7 +12128,7 @@
         <v>In</v>
       </c>
       <c r="I357" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>291946</v>
       </c>
     </row>
@@ -12151,7 +12153,7 @@
         <v>In</v>
       </c>
       <c r="I358" s="7">
-        <f t="shared" ref="I358:I359" si="26">IF(G358="Out",C358*-1,C358)</f>
+        <f t="shared" ref="I358:I359" si="27">IF(G358="Out",C358*-1,C358)</f>
         <v>1233</v>
       </c>
     </row>
@@ -12176,7 +12178,7 @@
         <v>Out</v>
       </c>
       <c r="I359" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-10577500</v>
       </c>
     </row>
@@ -12201,7 +12203,7 @@
         <v>In</v>
       </c>
       <c r="I360" s="7">
-        <f t="shared" ref="I360:I365" si="27">IF(G360="Out",C360*-1,C360)</f>
+        <f t="shared" ref="I360:I365" si="28">IF(G360="Out",C360*-1,C360)</f>
         <v>50000</v>
       </c>
     </row>
@@ -12226,7 +12228,7 @@
         <v>In</v>
       </c>
       <c r="I361" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>30000</v>
       </c>
     </row>
@@ -12251,7 +12253,7 @@
         <v>Out</v>
       </c>
       <c r="I362" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-30000</v>
       </c>
     </row>
@@ -12276,7 +12278,7 @@
         <v>Out</v>
       </c>
       <c r="I363" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-268504</v>
       </c>
     </row>
@@ -12301,7 +12303,7 @@
         <v>In</v>
       </c>
       <c r="I364" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>268504</v>
       </c>
     </row>
@@ -12326,7 +12328,7 @@
         <v>Out</v>
       </c>
       <c r="I365" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-688</v>
       </c>
       <c r="J365" t="s">
@@ -12354,7 +12356,7 @@
         <v>In</v>
       </c>
       <c r="I366" s="88">
-        <f t="shared" ref="I366:I369" si="28">IF(G366="Out",C366*-1,C366)</f>
+        <f t="shared" ref="I366:I369" si="29">IF(G366="Out",C366*-1,C366)</f>
         <v>688</v>
       </c>
       <c r="J366" s="81" t="s">
@@ -12384,7 +12386,7 @@
       </c>
       <c r="H367" s="66"/>
       <c r="I367" s="66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-50000</v>
       </c>
       <c r="J367" s="31" t="s">
@@ -12412,7 +12414,7 @@
         <v>Out</v>
       </c>
       <c r="I368" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3000</v>
       </c>
     </row>
@@ -12437,7 +12439,7 @@
         <v>Out</v>
       </c>
       <c r="I369" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4000</v>
       </c>
     </row>
@@ -12462,7 +12464,7 @@
         <v>Out</v>
       </c>
       <c r="I370" s="7">
-        <f t="shared" ref="I370" si="29">IF(G370="Out",C370*-1,C370)</f>
+        <f t="shared" ref="I370" si="30">IF(G370="Out",C370*-1,C370)</f>
         <v>-1370</v>
       </c>
     </row>
@@ -12487,7 +12489,7 @@
         <v>In</v>
       </c>
       <c r="I371" s="7">
-        <f t="shared" ref="I371:I392" si="30">IF(G371="Out",C371*-1,C371)</f>
+        <f t="shared" ref="I371:I392" si="31">IF(G371="Out",C371*-1,C371)</f>
         <v>584666</v>
       </c>
     </row>
@@ -12512,7 +12514,7 @@
         <v>Out</v>
       </c>
       <c r="I372" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-121000</v>
       </c>
     </row>
@@ -12537,7 +12539,7 @@
         <v>Out</v>
       </c>
       <c r="I373" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-23555</v>
       </c>
     </row>
@@ -12562,7 +12564,7 @@
         <v>Out</v>
       </c>
       <c r="I374" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6629</v>
       </c>
     </row>
@@ -12587,7 +12589,7 @@
         <v>In</v>
       </c>
       <c r="I375" s="88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>688</v>
       </c>
       <c r="J375" t="s">
@@ -12615,7 +12617,7 @@
         <v>Out</v>
       </c>
       <c r="I376" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-52809</v>
       </c>
       <c r="J376" s="81" t="s">
@@ -12643,7 +12645,7 @@
         <v>Out</v>
       </c>
       <c r="I377" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-34896</v>
       </c>
     </row>
@@ -12668,7 +12670,7 @@
         <v>155</v>
       </c>
       <c r="I378" s="90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16463</v>
       </c>
       <c r="J378" t="s">
@@ -12696,7 +12698,7 @@
         <v>Out</v>
       </c>
       <c r="I379" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-25098</v>
       </c>
       <c r="J379" s="87" t="s">
@@ -12724,7 +12726,7 @@
         <v>Out</v>
       </c>
       <c r="I380" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6642</v>
       </c>
     </row>
@@ -12749,7 +12751,7 @@
         <v>Out</v>
       </c>
       <c r="I381" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3000</v>
       </c>
       <c r="J381" s="81" t="s">
@@ -12777,7 +12779,7 @@
         <v>In</v>
       </c>
       <c r="I382" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>30000</v>
       </c>
     </row>
@@ -12802,7 +12804,7 @@
         <v>Out</v>
       </c>
       <c r="I383" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-30000</v>
       </c>
     </row>
@@ -12827,7 +12829,7 @@
         <v>Out</v>
       </c>
       <c r="I384" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-19873</v>
       </c>
     </row>
@@ -12855,7 +12857,7 @@
         <v>In</v>
       </c>
       <c r="I385" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>89</v>
       </c>
     </row>
@@ -12883,7 +12885,7 @@
         <v>Out</v>
       </c>
       <c r="I386" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-89</v>
       </c>
     </row>
@@ -12908,7 +12910,7 @@
         <v>Out</v>
       </c>
       <c r="I387" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1001100</v>
       </c>
     </row>
@@ -12933,7 +12935,7 @@
         <v>In</v>
       </c>
       <c r="I388" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5000</v>
       </c>
     </row>
@@ -12958,7 +12960,7 @@
         <v>Out</v>
       </c>
       <c r="I389" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5000</v>
       </c>
     </row>
@@ -12983,7 +12985,7 @@
         <v>Out</v>
       </c>
       <c r="I390" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1001100</v>
       </c>
     </row>
@@ -13008,7 +13010,7 @@
         <v>In</v>
       </c>
       <c r="I391" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4461</v>
       </c>
     </row>
@@ -13033,7 +13035,7 @@
         <v>Out</v>
       </c>
       <c r="I392" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-4461</v>
       </c>
     </row>
@@ -13058,7 +13060,7 @@
         <v>Out</v>
       </c>
       <c r="I393" s="7">
-        <f t="shared" ref="I393:I395" si="31">IF(G393="Out",C393*-1,C393)</f>
+        <f t="shared" ref="I393:I395" si="32">IF(G393="Out",C393*-1,C393)</f>
         <v>-358424</v>
       </c>
     </row>
@@ -13083,7 +13085,7 @@
         <v>In</v>
       </c>
       <c r="I394" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1800</v>
       </c>
     </row>
@@ -13108,7 +13110,7 @@
         <v>Out</v>
       </c>
       <c r="I395" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1800</v>
       </c>
     </row>
@@ -13133,7 +13135,7 @@
         <v>In</v>
       </c>
       <c r="I396" s="7">
-        <f t="shared" ref="I396" si="32">IF(G396="Out",C396*-1,C396)</f>
+        <f t="shared" ref="I396" si="33">IF(G396="Out",C396*-1,C396)</f>
         <v>295890</v>
       </c>
     </row>
@@ -13158,7 +13160,7 @@
         <v>Out</v>
       </c>
       <c r="I397" s="7">
-        <f t="shared" ref="I397:I398" si="33">IF(G397="Out",C397*-1,C397)</f>
+        <f t="shared" ref="I397:I398" si="34">IF(G397="Out",C397*-1,C397)</f>
         <v>-316285</v>
       </c>
     </row>
@@ -13185,7 +13187,7 @@
       </c>
       <c r="H398" s="66"/>
       <c r="I398" s="66">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>316285</v>
       </c>
     </row>
@@ -13210,7 +13212,7 @@
         <v>Out</v>
       </c>
       <c r="I399" s="7">
-        <f t="shared" ref="I399:I403" si="34">IF(G399="Out",C399*-1,C399)</f>
+        <f t="shared" ref="I399:I403" si="35">IF(G399="Out",C399*-1,C399)</f>
         <v>-87998</v>
       </c>
     </row>
@@ -13235,7 +13237,7 @@
         <v>Out</v>
       </c>
       <c r="I400" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-87044</v>
       </c>
     </row>
@@ -13260,7 +13262,7 @@
         <v>Out</v>
       </c>
       <c r="I401" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3000</v>
       </c>
       <c r="J401" s="81" t="s">
@@ -13288,7 +13290,7 @@
         <v>Out</v>
       </c>
       <c r="I402" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3000</v>
       </c>
       <c r="J402" s="81" t="s">
@@ -13316,7 +13318,7 @@
         <v>Out</v>
       </c>
       <c r="I403" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-10000</v>
       </c>
       <c r="J403" s="81" t="s">
@@ -13344,7 +13346,7 @@
         <v>In</v>
       </c>
       <c r="I404" s="7">
-        <f t="shared" ref="I404:I405" si="35">IF(G404="Out",C404*-1,C404)</f>
+        <f t="shared" ref="I404:I405" si="36">IF(G404="Out",C404*-1,C404)</f>
         <v>300000</v>
       </c>
     </row>
@@ -13369,7 +13371,7 @@
         <v>Out</v>
       </c>
       <c r="I405" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4000</v>
       </c>
     </row>
@@ -13394,7 +13396,7 @@
         <v>In</v>
       </c>
       <c r="I406" s="7">
-        <f t="shared" ref="I406:I407" si="36">IF(G406="Out",C406*-1,C406)</f>
+        <f t="shared" ref="I406:I407" si="37">IF(G406="Out",C406*-1,C406)</f>
         <v>60000</v>
       </c>
     </row>
@@ -13419,7 +13421,7 @@
         <v>In</v>
       </c>
       <c r="I407" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10000</v>
       </c>
     </row>
@@ -13444,7 +13446,7 @@
         <v>Out</v>
       </c>
       <c r="I408" s="7">
-        <f t="shared" ref="I408" si="37">IF(G408="Out",C408*-1,C408)</f>
+        <f t="shared" ref="I408" si="38">IF(G408="Out",C408*-1,C408)</f>
         <v>-49000</v>
       </c>
     </row>
@@ -13469,7 +13471,7 @@
         <v>In</v>
       </c>
       <c r="I409" s="7">
-        <f t="shared" ref="I409:I411" si="38">IF(G409="Out",C409*-1,C409)</f>
+        <f t="shared" ref="I409:I411" si="39">IF(G409="Out",C409*-1,C409)</f>
         <v>583866</v>
       </c>
     </row>
@@ -13494,7 +13496,7 @@
         <v>Out</v>
       </c>
       <c r="I410" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-121000</v>
       </c>
     </row>
@@ -13519,7 +13521,7 @@
         <v>Out</v>
       </c>
       <c r="I411" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-9398</v>
       </c>
     </row>
@@ -13544,7 +13546,7 @@
         <v>Out</v>
       </c>
       <c r="I412" s="7">
-        <f t="shared" ref="I412" si="39">IF(G412="Out",C412*-1,C412)</f>
+        <f t="shared" ref="I412" si="40">IF(G412="Out",C412*-1,C412)</f>
         <v>-8158</v>
       </c>
     </row>
@@ -13569,7 +13571,7 @@
         <v>Out</v>
       </c>
       <c r="I413" s="7">
-        <f t="shared" ref="I413:I430" si="40">IF(G413="Out",C413*-1,C413)</f>
+        <f t="shared" ref="I413:I430" si="41">IF(G413="Out",C413*-1,C413)</f>
         <v>-52809</v>
       </c>
     </row>
@@ -13594,7 +13596,7 @@
         <v>Out</v>
       </c>
       <c r="I414" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-3272</v>
       </c>
     </row>
@@ -13619,7 +13621,7 @@
         <v>Out</v>
       </c>
       <c r="I415" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-32713</v>
       </c>
     </row>
@@ -13644,7 +13646,7 @@
         <v>Out</v>
       </c>
       <c r="I416" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-53269</v>
       </c>
     </row>
@@ -13669,7 +13671,7 @@
         <v>Out</v>
       </c>
       <c r="I417" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-8174</v>
       </c>
     </row>
@@ -13697,7 +13699,7 @@
         <v>In</v>
       </c>
       <c r="I418" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>38</v>
       </c>
     </row>
@@ -13725,7 +13727,7 @@
         <v>Out</v>
       </c>
       <c r="I419" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-38</v>
       </c>
     </row>
@@ -13750,7 +13752,7 @@
         <v>Out</v>
       </c>
       <c r="I420" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-876100</v>
       </c>
     </row>
@@ -13775,7 +13777,7 @@
         <v>In</v>
       </c>
       <c r="I421" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4380</v>
       </c>
     </row>
@@ -13800,7 +13802,7 @@
         <v>Out</v>
       </c>
       <c r="I422" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-4380</v>
       </c>
     </row>
@@ -13825,7 +13827,7 @@
         <v>Out</v>
       </c>
       <c r="I423" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-876100</v>
       </c>
     </row>
@@ -13850,7 +13852,7 @@
         <v>In</v>
       </c>
       <c r="I424" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4075</v>
       </c>
     </row>
@@ -13875,7 +13877,7 @@
         <v>Out</v>
       </c>
       <c r="I425" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-4075</v>
       </c>
     </row>
@@ -13900,7 +13902,7 @@
         <v>In</v>
       </c>
       <c r="I426" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>293178</v>
       </c>
     </row>
@@ -13925,7 +13927,7 @@
         <v>In</v>
       </c>
       <c r="I427" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>30000</v>
       </c>
     </row>
@@ -13950,7 +13952,7 @@
         <v>Out</v>
       </c>
       <c r="I428" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-30000</v>
       </c>
     </row>
@@ -13975,7 +13977,7 @@
         <v>Out</v>
       </c>
       <c r="I429" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-686833</v>
       </c>
     </row>
@@ -14002,7 +14004,7 @@
       </c>
       <c r="H430" s="66"/>
       <c r="I430" s="66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>686833</v>
       </c>
     </row>
@@ -14027,7 +14029,7 @@
         <v>In</v>
       </c>
       <c r="I431" s="90">
-        <f t="shared" ref="I431" si="41">IF(G431="Out",C431*-1,C431)</f>
+        <f t="shared" ref="I431" si="42">IF(G431="Out",C431*-1,C431)</f>
         <v>3000</v>
       </c>
     </row>
@@ -14052,7 +14054,7 @@
         <v>Out</v>
       </c>
       <c r="I432" s="7">
-        <f t="shared" ref="I432" si="42">IF(G432="Out",C432*-1,C432)</f>
+        <f t="shared" ref="I432" si="43">IF(G432="Out",C432*-1,C432)</f>
         <v>-3000</v>
       </c>
       <c r="J432" s="81" t="s">
@@ -14080,7 +14082,7 @@
         <v>Out</v>
       </c>
       <c r="I433" s="7">
-        <f t="shared" ref="I433:I438" si="43">IF(G433="Out",C433*-1,C433)</f>
+        <f t="shared" ref="I433:I438" si="44">IF(G433="Out",C433*-1,C433)</f>
         <v>-19000</v>
       </c>
     </row>
@@ -14105,7 +14107,7 @@
         <v>Out</v>
       </c>
       <c r="I434" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-121000</v>
       </c>
     </row>
@@ -14130,7 +14132,7 @@
         <v>Out</v>
       </c>
       <c r="I435" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-43466</v>
       </c>
     </row>
@@ -14155,7 +14157,7 @@
         <v>Out</v>
       </c>
       <c r="I436" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-7794</v>
       </c>
     </row>
@@ -14180,7 +14182,7 @@
         <v>Out</v>
       </c>
       <c r="I437" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-108675</v>
       </c>
     </row>
@@ -14205,7 +14207,7 @@
         <v>Out</v>
       </c>
       <c r="I438" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-96923</v>
       </c>
     </row>
@@ -14230,7 +14232,7 @@
         <v>Out</v>
       </c>
       <c r="I439" s="7">
-        <f t="shared" ref="I439" si="44">IF(G439="Out",C439*-1,C439)</f>
+        <f t="shared" ref="I439" si="45">IF(G439="Out",C439*-1,C439)</f>
         <v>-19255</v>
       </c>
     </row>
@@ -14255,7 +14257,7 @@
         <v>Out</v>
       </c>
       <c r="I440" s="7">
-        <f t="shared" ref="I440" si="45">IF(G440="Out",C440*-1,C440)</f>
+        <f t="shared" ref="I440" si="46">IF(G440="Out",C440*-1,C440)</f>
         <v>-10000</v>
       </c>
       <c r="J440" s="81" t="s">
@@ -14283,7 +14285,7 @@
         <v>In</v>
       </c>
       <c r="I441" s="7">
-        <f t="shared" ref="I441" si="46">IF(G441="Out",C441*-1,C441)</f>
+        <f t="shared" ref="I441" si="47">IF(G441="Out",C441*-1,C441)</f>
         <v>21500000</v>
       </c>
     </row>
@@ -14308,7 +14310,7 @@
         <v>Out</v>
       </c>
       <c r="I442" s="7">
-        <f t="shared" ref="I442:I455" si="47">IF(G442="Out",C442*-1,C442)</f>
+        <f t="shared" ref="I442:I455" si="48">IF(G442="Out",C442*-1,C442)</f>
         <v>-100000</v>
       </c>
     </row>
@@ -14333,7 +14335,7 @@
         <v>Out</v>
       </c>
       <c r="I443" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-4100</v>
       </c>
     </row>
@@ -14358,7 +14360,7 @@
         <v>In</v>
       </c>
       <c r="I444" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>606345</v>
       </c>
     </row>
@@ -14383,7 +14385,7 @@
         <v>Out</v>
       </c>
       <c r="I445" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-121000</v>
       </c>
     </row>
@@ -14408,7 +14410,7 @@
         <v>Out</v>
       </c>
       <c r="I446" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-20165</v>
       </c>
     </row>
@@ -14433,7 +14435,7 @@
         <v>Out</v>
       </c>
       <c r="I447" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-13041</v>
       </c>
     </row>
@@ -14458,7 +14460,7 @@
         <v>In</v>
       </c>
       <c r="I448" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>30000</v>
       </c>
     </row>
@@ -14483,7 +14485,7 @@
         <v>Out</v>
       </c>
       <c r="I449" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-30000</v>
       </c>
     </row>
@@ -14508,7 +14510,7 @@
         <v>Out</v>
       </c>
       <c r="I450" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-20144</v>
       </c>
     </row>
@@ -14536,7 +14538,7 @@
         <v>In</v>
       </c>
       <c r="I451" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>94</v>
       </c>
     </row>
@@ -14564,7 +14566,7 @@
         <v>Out</v>
       </c>
       <c r="I452" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-94</v>
       </c>
     </row>
@@ -14589,7 +14591,7 @@
         <v>In</v>
       </c>
       <c r="I453" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>339288</v>
       </c>
     </row>
@@ -14614,7 +14616,7 @@
         <v>Out</v>
       </c>
       <c r="I454" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-124944</v>
       </c>
     </row>
@@ -14641,7 +14643,7 @@
       </c>
       <c r="H455" s="66"/>
       <c r="I455" s="66">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>124944</v>
       </c>
     </row>
@@ -14666,7 +14668,7 @@
         <v>Out</v>
       </c>
       <c r="I456" s="7">
-        <f t="shared" ref="I456:I459" si="48">IF(G456="Out",C456*-1,C456)</f>
+        <f t="shared" ref="I456:I459" si="49">IF(G456="Out",C456*-1,C456)</f>
         <v>-59215</v>
       </c>
     </row>
@@ -14691,7 +14693,7 @@
         <v>Out</v>
       </c>
       <c r="I457" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-129218</v>
       </c>
     </row>
@@ -14716,7 +14718,7 @@
         <v>Out</v>
       </c>
       <c r="I458" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-407728</v>
       </c>
     </row>
@@ -14741,7 +14743,7 @@
         <v>Out</v>
       </c>
       <c r="I459" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-19244</v>
       </c>
     </row>
@@ -14766,7 +14768,7 @@
         <v>Out</v>
       </c>
       <c r="I460" s="7">
-        <f t="shared" ref="I460:I462" si="49">IF(G460="Out",C460*-1,C460)</f>
+        <f t="shared" ref="I460:I462" si="50">IF(G460="Out",C460*-1,C460)</f>
         <v>-15000</v>
       </c>
       <c r="J460" s="81" t="s">
@@ -14794,7 +14796,7 @@
         <v>Out</v>
       </c>
       <c r="I461" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-3000</v>
       </c>
       <c r="J461" s="81" t="s">
@@ -14822,7 +14824,7 @@
         <v>In</v>
       </c>
       <c r="I462" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>13619</v>
       </c>
     </row>
@@ -14847,7 +14849,7 @@
         <v>In</v>
       </c>
       <c r="I463" s="7">
-        <f t="shared" ref="I463" si="50">IF(G463="Out",C463*-1,C463)</f>
+        <f t="shared" ref="I463" si="51">IF(G463="Out",C463*-1,C463)</f>
         <v>45</v>
       </c>
     </row>
@@ -14872,7 +14874,7 @@
         <v>In</v>
       </c>
       <c r="I464" s="7">
-        <f t="shared" ref="I464:I465" si="51">IF(G464="Out",C464*-1,C464)</f>
+        <f t="shared" ref="I464:I465" si="52">IF(G464="Out",C464*-1,C464)</f>
         <v>50000</v>
       </c>
     </row>
@@ -14897,7 +14899,7 @@
         <v>Out</v>
       </c>
       <c r="I465" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-10603700</v>
       </c>
     </row>
@@ -14922,7 +14924,7 @@
         <v>In</v>
       </c>
       <c r="I466" s="7">
-        <f t="shared" ref="I466:I474" si="52">IF(G466="Out",C466*-1,C466)</f>
+        <f t="shared" ref="I466:I474" si="53">IF(G466="Out",C466*-1,C466)</f>
         <v>621111</v>
       </c>
     </row>
@@ -14947,7 +14949,7 @@
         <v>In</v>
       </c>
       <c r="I467" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>30000</v>
       </c>
     </row>
@@ -14972,7 +14974,7 @@
         <v>Out</v>
       </c>
       <c r="I468" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-30000</v>
       </c>
     </row>
@@ -14997,7 +14999,7 @@
         <v>Out</v>
       </c>
       <c r="I469" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-4002200</v>
       </c>
     </row>
@@ -15022,7 +15024,7 @@
         <v>In</v>
       </c>
       <c r="I470" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>20000</v>
       </c>
     </row>
@@ -15047,7 +15049,7 @@
         <v>Out</v>
       </c>
       <c r="I471" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-20000</v>
       </c>
     </row>
@@ -15072,7 +15074,7 @@
         <v>Out</v>
       </c>
       <c r="I472" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-48200</v>
       </c>
     </row>
@@ -15100,7 +15102,7 @@
         <v>In</v>
       </c>
       <c r="I473" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>224</v>
       </c>
     </row>
@@ -15128,7 +15130,7 @@
         <v>Out</v>
       </c>
       <c r="I474" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-224</v>
       </c>
     </row>
@@ -15153,7 +15155,7 @@
         <v>In</v>
       </c>
       <c r="I475" s="7">
-        <f t="shared" ref="I475:I481" si="53">IF(G475="Out",C475*-1,C475)</f>
+        <f t="shared" ref="I475:I481" si="54">IF(G475="Out",C475*-1,C475)</f>
         <v>344025</v>
       </c>
     </row>
@@ -15178,7 +15180,7 @@
         <v>Out</v>
       </c>
       <c r="I476" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1951100</v>
       </c>
     </row>
@@ -15203,7 +15205,7 @@
         <v>In</v>
       </c>
       <c r="I477" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9250</v>
       </c>
     </row>
@@ -15228,7 +15230,7 @@
         <v>Out</v>
       </c>
       <c r="I478" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-9250</v>
       </c>
     </row>
@@ -15253,7 +15255,7 @@
         <v>Out</v>
       </c>
       <c r="I479" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1951100</v>
       </c>
     </row>
@@ -15278,7 +15280,7 @@
         <v>In</v>
       </c>
       <c r="I480" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9076</v>
       </c>
     </row>
@@ -15303,7 +15305,7 @@
         <v>Out</v>
       </c>
       <c r="I481" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-9076</v>
       </c>
     </row>
@@ -15328,7 +15330,7 @@
         <v>In</v>
       </c>
       <c r="I482" s="7">
-        <f t="shared" ref="I482:I488" si="54">IF(G482="Out",C482*-1,C482)</f>
+        <f t="shared" ref="I482:I488" si="55">IF(G482="Out",C482*-1,C482)</f>
         <v>4581</v>
       </c>
       <c r="J482" s="3"/>
@@ -15354,7 +15356,7 @@
         <v>Out</v>
       </c>
       <c r="I483" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-314747</v>
       </c>
     </row>
@@ -15381,7 +15383,7 @@
       </c>
       <c r="H484" s="66"/>
       <c r="I484" s="66">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>314747</v>
       </c>
     </row>
@@ -15406,7 +15408,7 @@
         <v>Out</v>
       </c>
       <c r="I485" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-14531</v>
       </c>
     </row>
@@ -15431,7 +15433,7 @@
         <v>Out</v>
       </c>
       <c r="I486" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-760</v>
       </c>
     </row>
@@ -15456,7 +15458,7 @@
         <v>Out</v>
       </c>
       <c r="I487" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-105102</v>
       </c>
     </row>
@@ -15481,7 +15483,7 @@
         <v>Out</v>
       </c>
       <c r="I488" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-102386</v>
       </c>
     </row>
@@ -15506,7 +15508,7 @@
         <v>Out</v>
       </c>
       <c r="I489" s="7">
-        <f t="shared" ref="I489" si="55">IF(G489="Out",C489*-1,C489)</f>
+        <f t="shared" ref="I489" si="56">IF(G489="Out",C489*-1,C489)</f>
         <v>-10000</v>
       </c>
     </row>
@@ -15531,7 +15533,7 @@
         <v>In</v>
       </c>
       <c r="I490" s="7">
-        <f t="shared" ref="I490:I493" si="56">IF(G490="Out",C490*-1,C490)</f>
+        <f t="shared" ref="I490:I493" si="57">IF(G490="Out",C490*-1,C490)</f>
         <v>5266</v>
       </c>
     </row>
@@ -15556,7 +15558,7 @@
         <v>In</v>
       </c>
       <c r="I491" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>544411</v>
       </c>
     </row>
@@ -15581,7 +15583,7 @@
         <v>Out</v>
       </c>
       <c r="I492" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-10000</v>
       </c>
       <c r="J492" s="31" t="s">
@@ -15609,7 +15611,7 @@
         <v>Out</v>
       </c>
       <c r="I493" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3000</v>
       </c>
       <c r="J493" s="31" t="s">
@@ -15637,7 +15639,7 @@
         <v>In</v>
       </c>
       <c r="I494" s="7">
-        <f t="shared" ref="I494:I497" si="57">IF(G494="Out",C494*-1,C494)</f>
+        <f t="shared" ref="I494:I497" si="58">IF(G494="Out",C494*-1,C494)</f>
         <v>1950000</v>
       </c>
     </row>
@@ -15662,7 +15664,7 @@
         <v>In</v>
       </c>
       <c r="I495" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>50000</v>
       </c>
     </row>
@@ -15687,7 +15689,7 @@
         <v>Out</v>
       </c>
       <c r="I496" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-421604200</v>
       </c>
     </row>
@@ -15712,7 +15714,7 @@
         <v>Out</v>
       </c>
       <c r="I497" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-50000</v>
       </c>
       <c r="J497" s="81" t="s">
@@ -15765,7 +15767,7 @@
         <v>Out</v>
       </c>
       <c r="I499" s="7">
-        <f t="shared" ref="I499" si="58">IF(G499="Out",C499*-1,C499)</f>
+        <f t="shared" ref="I499" si="59">IF(G499="Out",C499*-1,C499)</f>
         <v>-50000</v>
       </c>
     </row>
@@ -15790,7 +15792,7 @@
         <v>Out</v>
       </c>
       <c r="I500" s="7">
-        <f t="shared" ref="I500:I501" si="59">IF(G500="Out",C500*-1,C500)</f>
+        <f t="shared" ref="I500:I501" si="60">IF(G500="Out",C500*-1,C500)</f>
         <v>-3000</v>
       </c>
       <c r="J500" s="81" t="s">
@@ -15818,7 +15820,7 @@
         <v>Out</v>
       </c>
       <c r="I501" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-23330</v>
       </c>
     </row>
@@ -15843,7 +15845,7 @@
         <v>In</v>
       </c>
       <c r="I502" s="7">
-        <f t="shared" ref="I502:I507" si="60">IF(G502="Out",C502*-1,C502)</f>
+        <f t="shared" ref="I502:I507" si="61">IF(G502="Out",C502*-1,C502)</f>
         <v>679250</v>
       </c>
     </row>
@@ -15868,7 +15870,7 @@
         <v>In</v>
       </c>
       <c r="I503" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>30000</v>
       </c>
     </row>
@@ -15893,7 +15895,7 @@
         <v>Out</v>
       </c>
       <c r="I504" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-30000</v>
       </c>
     </row>
@@ -15918,7 +15920,7 @@
         <v>Out</v>
       </c>
       <c r="I505" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-166409</v>
       </c>
     </row>
@@ -15946,7 +15948,7 @@
         <v>In</v>
       </c>
       <c r="I506" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>804</v>
       </c>
     </row>
@@ -15974,7 +15976,7 @@
         <v>Out</v>
       </c>
       <c r="I507" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-804</v>
       </c>
     </row>
@@ -15999,7 +16001,7 @@
         <v>Out</v>
       </c>
       <c r="I508" s="7">
-        <f t="shared" ref="I508:I517" si="61">IF(G508="Out",C508*-1,C508)</f>
+        <f t="shared" ref="I508:I517" si="62">IF(G508="Out",C508*-1,C508)</f>
         <v>-1519780</v>
       </c>
     </row>
@@ -16024,7 +16026,7 @@
         <v>In</v>
       </c>
       <c r="I509" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>6391</v>
       </c>
     </row>
@@ -16049,7 +16051,7 @@
         <v>Out</v>
       </c>
       <c r="I510" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-6391</v>
       </c>
     </row>
@@ -16074,7 +16076,7 @@
         <v>In</v>
       </c>
       <c r="I511" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>296876</v>
       </c>
     </row>
@@ -16099,7 +16101,7 @@
         <v>In</v>
       </c>
       <c r="I512" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>200000</v>
       </c>
     </row>
@@ -16127,7 +16129,7 @@
         <v>Out</v>
       </c>
       <c r="I513" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-1000</v>
       </c>
     </row>
@@ -16155,7 +16157,7 @@
         <v>In</v>
       </c>
       <c r="I514" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1000</v>
       </c>
     </row>
@@ -16180,7 +16182,7 @@
         <v>Out</v>
       </c>
       <c r="I515" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-507366</v>
       </c>
     </row>
@@ -16207,7 +16209,7 @@
       </c>
       <c r="H516" s="66"/>
       <c r="I516" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>507366</v>
       </c>
     </row>
@@ -16234,7 +16236,7 @@
       </c>
       <c r="H517" s="55"/>
       <c r="I517" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-222019</v>
       </c>
     </row>
@@ -16261,7 +16263,7 @@
       </c>
       <c r="H518" s="55"/>
       <c r="I518" s="7">
-        <f t="shared" ref="I518" si="62">IF(G518="Out",C518*-1,C518)</f>
+        <f t="shared" ref="I518" si="63">IF(G518="Out",C518*-1,C518)</f>
         <v>222019</v>
       </c>
     </row>
@@ -16288,7 +16290,7 @@
       </c>
       <c r="H519" s="55"/>
       <c r="I519" s="7">
-        <f t="shared" ref="I519" si="63">IF(G519="Out",C519*-1,C519)</f>
+        <f t="shared" ref="I519" si="64">IF(G519="Out",C519*-1,C519)</f>
         <v>10758</v>
       </c>
     </row>
@@ -16313,7 +16315,7 @@
         <v>Out</v>
       </c>
       <c r="I520" s="7">
-        <f t="shared" ref="I520" si="64">IF(G520="Out",C520*-1,C520)</f>
+        <f t="shared" ref="I520" si="65">IF(G520="Out",C520*-1,C520)</f>
         <v>-4300</v>
       </c>
     </row>
@@ -16338,7 +16340,7 @@
         <v>Out</v>
       </c>
       <c r="I521" s="7">
-        <f t="shared" ref="I521:I526" si="65">IF(G521="Out",C521*-1,C521)</f>
+        <f t="shared" ref="I521:I526" si="66">IF(G521="Out",C521*-1,C521)</f>
         <v>-7600</v>
       </c>
     </row>
@@ -16363,7 +16365,7 @@
         <v>Out</v>
       </c>
       <c r="I522" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-50000</v>
       </c>
     </row>
@@ -16388,7 +16390,7 @@
         <v>Out</v>
       </c>
       <c r="I523" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-2000</v>
       </c>
     </row>
@@ -16413,7 +16415,7 @@
         <v>Out</v>
       </c>
       <c r="I524" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-4900</v>
       </c>
     </row>
@@ -16438,7 +16440,7 @@
         <v>In</v>
       </c>
       <c r="I525" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>50000</v>
       </c>
     </row>
@@ -16463,7 +16465,7 @@
         <v>Out</v>
       </c>
       <c r="I526" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-50000</v>
       </c>
     </row>
@@ -16488,7 +16490,7 @@
         <v>Out</v>
       </c>
       <c r="I527" s="7">
-        <f t="shared" ref="I527:I528" si="66">IF(G527="Out",C527*-1,C527)</f>
+        <f t="shared" ref="I527:I528" si="67">IF(G527="Out",C527*-1,C527)</f>
         <v>-50000</v>
       </c>
     </row>
@@ -16513,7 +16515,7 @@
         <v>Out</v>
       </c>
       <c r="I528" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-2000</v>
       </c>
     </row>
@@ -16563,7 +16565,7 @@
         <v>In</v>
       </c>
       <c r="I530" s="7">
-        <f t="shared" ref="I530:I532" si="67">IF(G530="Out",C530*-1,C530)</f>
+        <f t="shared" ref="I530:I532" si="68">IF(G530="Out",C530*-1,C530)</f>
         <v>50000</v>
       </c>
     </row>
@@ -16588,7 +16590,7 @@
         <v>Out</v>
       </c>
       <c r="I531" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-50000</v>
       </c>
     </row>
@@ -16613,7 +16615,7 @@
         <v>Out</v>
       </c>
       <c r="I532" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-2000</v>
       </c>
     </row>
@@ -16638,7 +16640,7 @@
         <v>In</v>
       </c>
       <c r="I533" s="7">
-        <f t="shared" ref="I533:I534" si="68">IF(G533="Out",C533*-1,C533)</f>
+        <f t="shared" ref="I533:I534" si="69">IF(G533="Out",C533*-1,C533)</f>
         <v>33</v>
       </c>
       <c r="L533" s="80" t="s">
@@ -16666,7 +16668,7 @@
         <v>Out</v>
       </c>
       <c r="I534" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-2000</v>
       </c>
       <c r="L534" s="78" t="s">
@@ -16694,7 +16696,7 @@
         <v>In</v>
       </c>
       <c r="I535" s="7">
-        <f t="shared" ref="I535:I537" si="69">IF(G535="Out",C535*-1,C535)</f>
+        <f t="shared" ref="I535:I537" si="70">IF(G535="Out",C535*-1,C535)</f>
         <v>660000</v>
       </c>
       <c r="J535" s="31"/>
@@ -16720,7 +16722,7 @@
         <v>Out</v>
       </c>
       <c r="I536" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-10000</v>
       </c>
       <c r="J536" s="31" t="s">
@@ -16748,7 +16750,7 @@
         <v>Out</v>
       </c>
       <c r="I537" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-2000</v>
       </c>
       <c r="J537" s="31"/>
@@ -16774,7 +16776,7 @@
         <v>Out</v>
       </c>
       <c r="I538" s="7">
-        <f t="shared" ref="I538" si="70">IF(G538="Out",C538*-1,C538)</f>
+        <f t="shared" ref="I538" si="71">IF(G538="Out",C538*-1,C538)</f>
         <v>-100000</v>
       </c>
       <c r="J538" s="31"/>
@@ -16800,7 +16802,7 @@
         <v>In</v>
       </c>
       <c r="I539" s="7">
-        <f t="shared" ref="I539" si="71">IF(G539="Out",C539*-1,C539)</f>
+        <f t="shared" ref="I539" si="72">IF(G539="Out",C539*-1,C539)</f>
         <v>150000</v>
       </c>
       <c r="J539" s="31"/>
@@ -16852,7 +16854,7 @@
         <v>Out</v>
       </c>
       <c r="I541" s="7">
-        <f t="shared" ref="I541:I544" si="72">IF(G541="Out",C541*-1,C541)</f>
+        <f t="shared" ref="I541:I544" si="73">IF(G541="Out",C541*-1,C541)</f>
         <v>-100000</v>
       </c>
       <c r="J541" s="31"/>
@@ -16878,7 +16880,7 @@
         <v>Out</v>
       </c>
       <c r="I542" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-5222</v>
       </c>
       <c r="J542" s="31" t="s">
@@ -16906,7 +16908,7 @@
         <v>Out</v>
       </c>
       <c r="I543" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-2000</v>
       </c>
       <c r="J543" s="31"/>
@@ -16932,7 +16934,7 @@
         <v>Out</v>
       </c>
       <c r="I544" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-200000</v>
       </c>
       <c r="J544" s="31"/>
@@ -16984,7 +16986,7 @@
         <v>Out</v>
       </c>
       <c r="I546" s="7">
-        <f t="shared" ref="I546:I549" si="73">IF(G546="Out",C546*-1,C546)</f>
+        <f t="shared" ref="I546:I549" si="74">IF(G546="Out",C546*-1,C546)</f>
         <v>-200000</v>
       </c>
       <c r="J546" s="31"/>
@@ -17010,7 +17012,7 @@
         <v>Out</v>
       </c>
       <c r="I547" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-2000</v>
       </c>
       <c r="J547" s="31"/>
@@ -17036,7 +17038,7 @@
         <v>Out</v>
       </c>
       <c r="I548" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-6437</v>
       </c>
       <c r="J548" s="31" t="s">
@@ -17064,7 +17066,7 @@
         <v>Out</v>
       </c>
       <c r="I549" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-2100</v>
       </c>
       <c r="J549" s="31"/>
@@ -17090,7 +17092,7 @@
         <v>In</v>
       </c>
       <c r="I550" s="7">
-        <f t="shared" ref="I550" si="74">IF(G550="Out",C550*-1,C550)</f>
+        <f t="shared" ref="I550" si="75">IF(G550="Out",C550*-1,C550)</f>
         <v>26</v>
       </c>
       <c r="J550" s="31"/>
@@ -17116,7 +17118,7 @@
         <v>Out</v>
       </c>
       <c r="I551" s="7">
-        <f t="shared" ref="I551" si="75">IF(G551="Out",C551*-1,C551)</f>
+        <f t="shared" ref="I551" si="76">IF(G551="Out",C551*-1,C551)</f>
         <v>-1631</v>
       </c>
       <c r="J551" s="31" t="s">
@@ -17194,7 +17196,7 @@
         <v>Out</v>
       </c>
       <c r="I554" s="7">
-        <f t="shared" ref="I554" si="76">IF(G554="Out",C554*-1,C554)</f>
+        <f t="shared" ref="I554" si="77">IF(G554="Out",C554*-1,C554)</f>
         <v>-300000</v>
       </c>
     </row>
@@ -17244,7 +17246,7 @@
         <v>Out</v>
       </c>
       <c r="I556" s="7">
-        <f t="shared" ref="I556" si="77">IF(G556="Out",C556*-1,C556)</f>
+        <f t="shared" ref="I556" si="78">IF(G556="Out",C556*-1,C556)</f>
         <v>-300000</v>
       </c>
     </row>
@@ -17319,7 +17321,7 @@
         <v>Out</v>
       </c>
       <c r="I559" s="7">
-        <f t="shared" ref="I559" si="78">IF(G559="Out",C559*-1,C559)</f>
+        <f t="shared" ref="I559" si="79">IF(G559="Out",C559*-1,C559)</f>
         <v>-10000</v>
       </c>
     </row>
@@ -17344,7 +17346,7 @@
         <v>In</v>
       </c>
       <c r="I560" s="7">
-        <f t="shared" ref="I560:I562" si="79">IF(G560="Out",C560*-1,C560)</f>
+        <f t="shared" ref="I560:I562" si="80">IF(G560="Out",C560*-1,C560)</f>
         <v>646998</v>
       </c>
     </row>
@@ -17369,7 +17371,7 @@
         <v>Out</v>
       </c>
       <c r="I561" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-9671</v>
       </c>
     </row>
@@ -17394,7 +17396,7 @@
         <v>In</v>
       </c>
       <c r="I562" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9671</v>
       </c>
     </row>
@@ -17419,7 +17421,7 @@
         <v>Out</v>
       </c>
       <c r="I563" s="7">
-        <f t="shared" ref="I563:I568" si="80">IF(G563="Out",C563*-1,C563)</f>
+        <f t="shared" ref="I563:I568" si="81">IF(G563="Out",C563*-1,C563)</f>
         <v>-235</v>
       </c>
     </row>
@@ -17444,7 +17446,7 @@
         <v>In</v>
       </c>
       <c r="I564" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>235</v>
       </c>
     </row>
@@ -17470,7 +17472,7 @@
       </c>
       <c r="H565" s="15"/>
       <c r="I565" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>235</v>
       </c>
     </row>
@@ -17496,7 +17498,7 @@
       </c>
       <c r="H566" s="15"/>
       <c r="I566" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-235</v>
       </c>
     </row>
@@ -17522,7 +17524,7 @@
       </c>
       <c r="H567" s="15"/>
       <c r="I567" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>31604</v>
       </c>
     </row>
@@ -17548,7 +17550,7 @@
       </c>
       <c r="H568" s="15"/>
       <c r="I568" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-5000</v>
       </c>
     </row>
@@ -17574,7 +17576,7 @@
       </c>
       <c r="H569" s="15"/>
       <c r="I569" s="7">
-        <f t="shared" ref="I569:I573" si="81">IF(G569="Out",C569*-1,C569)</f>
+        <f t="shared" ref="I569:I573" si="82">IF(G569="Out",C569*-1,C569)</f>
         <v>672139</v>
       </c>
     </row>
@@ -17601,7 +17603,7 @@
       </c>
       <c r="H570" s="15"/>
       <c r="I570" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-121000</v>
       </c>
     </row>
@@ -17627,7 +17629,7 @@
       </c>
       <c r="H571" s="15"/>
       <c r="I571" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-28966</v>
       </c>
     </row>
@@ -17654,7 +17656,7 @@
       </c>
       <c r="H572" s="15"/>
       <c r="I572" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-88237</v>
       </c>
     </row>
@@ -17680,7 +17682,7 @@
       </c>
       <c r="H573" s="15"/>
       <c r="I573" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-1000</v>
       </c>
     </row>
@@ -17706,7 +17708,7 @@
       </c>
       <c r="H574" s="15"/>
       <c r="I574" s="7">
-        <f t="shared" ref="I574:I577" si="82">IF(G574="Out",C574*-1,C574)</f>
+        <f t="shared" ref="I574:I577" si="83">IF(G574="Out",C574*-1,C574)</f>
         <v>-1000</v>
       </c>
     </row>
@@ -17732,7 +17734,7 @@
       </c>
       <c r="H575" s="15"/>
       <c r="I575" s="7">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1000</v>
       </c>
     </row>
@@ -17759,7 +17761,7 @@
       </c>
       <c r="H576" s="15"/>
       <c r="I576" s="7">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-50572</v>
       </c>
     </row>
@@ -17785,7 +17787,7 @@
       </c>
       <c r="H577" s="15"/>
       <c r="I577" s="7">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-980</v>
       </c>
     </row>
@@ -17812,7 +17814,7 @@
       </c>
       <c r="H578" s="15"/>
       <c r="I578" s="7">
-        <f t="shared" ref="I578:I581" si="83">IF(G578="Out",C578*-1,C578)</f>
+        <f t="shared" ref="I578:I581" si="84">IF(G578="Out",C578*-1,C578)</f>
         <v>-7490</v>
       </c>
     </row>
@@ -17839,7 +17841,7 @@
       </c>
       <c r="H579" s="15"/>
       <c r="I579" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-8470</v>
       </c>
     </row>
@@ -17866,7 +17868,7 @@
       </c>
       <c r="H580" s="15"/>
       <c r="I580" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8470</v>
       </c>
     </row>
@@ -17891,7 +17893,7 @@
         <v>Out</v>
       </c>
       <c r="I581" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-5800</v>
       </c>
       <c r="J581" s="81" t="s">
@@ -17919,7 +17921,7 @@
         <v>Out</v>
       </c>
       <c r="I582" s="7">
-        <f t="shared" ref="I582:I590" si="84">IF(G582="Out",C582*-1,C582)</f>
+        <f t="shared" ref="I582:I590" si="85">IF(G582="Out",C582*-1,C582)</f>
         <v>-65000</v>
       </c>
     </row>
@@ -17944,7 +17946,7 @@
         <v>Out</v>
       </c>
       <c r="I583" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-2000</v>
       </c>
     </row>
@@ -17970,7 +17972,7 @@
       </c>
       <c r="H584" s="15"/>
       <c r="I584" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-29000</v>
       </c>
     </row>
@@ -17996,7 +17998,7 @@
       </c>
       <c r="H585" s="15"/>
       <c r="I585" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>29000</v>
       </c>
     </row>
@@ -18022,7 +18024,7 @@
       </c>
       <c r="H586" s="15"/>
       <c r="I586" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>520000</v>
       </c>
     </row>
@@ -18047,7 +18049,7 @@
         <v>Out</v>
       </c>
       <c r="I587" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-54000</v>
       </c>
     </row>
@@ -18072,7 +18074,7 @@
         <v>In</v>
       </c>
       <c r="I588" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>54000</v>
       </c>
     </row>
@@ -18097,7 +18099,7 @@
         <v>Out</v>
       </c>
       <c r="I589" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-10000</v>
       </c>
     </row>
@@ -18122,7 +18124,7 @@
         <v>In</v>
       </c>
       <c r="I590" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>10000</v>
       </c>
     </row>
@@ -18147,7 +18149,7 @@
         <v>Out</v>
       </c>
       <c r="I591" s="7">
-        <f t="shared" ref="I591:I592" si="85">IF(G591="Out",C591*-1,C591)</f>
+        <f t="shared" ref="I591:I592" si="86">IF(G591="Out",C591*-1,C591)</f>
         <v>-20000</v>
       </c>
     </row>
@@ -18172,7 +18174,7 @@
         <v>In</v>
       </c>
       <c r="I592" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>20000</v>
       </c>
     </row>
@@ -18198,7 +18200,7 @@
         <v>Out</v>
       </c>
       <c r="I593" s="7">
-        <f t="shared" ref="I593:I614" si="86">IF(G593="Out",C593*-1,C593)</f>
+        <f t="shared" ref="I593:I614" si="87">IF(G593="Out",C593*-1,C593)</f>
         <v>-2778</v>
       </c>
     </row>
@@ -18223,7 +18225,7 @@
         <v>Out</v>
       </c>
       <c r="I594" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-6697</v>
       </c>
     </row>
@@ -18248,7 +18250,7 @@
         <v>Out</v>
       </c>
       <c r="I595" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-5222</v>
       </c>
     </row>
@@ -18273,7 +18275,7 @@
         <v>In</v>
       </c>
       <c r="I596" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>4651</v>
       </c>
     </row>
@@ -18298,7 +18300,7 @@
         <v>Out</v>
       </c>
       <c r="I597" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-4731</v>
       </c>
     </row>
@@ -18323,7 +18325,7 @@
         <v>Out</v>
       </c>
       <c r="I598" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-460</v>
       </c>
     </row>
@@ -18348,7 +18350,7 @@
         <v>Out</v>
       </c>
       <c r="I599" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-4694</v>
       </c>
     </row>
@@ -18373,7 +18375,7 @@
         <v>Out</v>
       </c>
       <c r="I600" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-6678</v>
       </c>
     </row>
@@ -18398,7 +18400,7 @@
         <v>Out</v>
       </c>
       <c r="I601" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-7683</v>
       </c>
     </row>
@@ -18423,7 +18425,7 @@
         <v>Out</v>
       </c>
       <c r="I602" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-3200</v>
       </c>
     </row>
@@ -18448,7 +18450,7 @@
         <v>Out</v>
       </c>
       <c r="I603" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-300</v>
       </c>
     </row>
@@ -18473,7 +18475,7 @@
         <v>Out</v>
       </c>
       <c r="I604" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-3072</v>
       </c>
     </row>
@@ -18498,7 +18500,7 @@
         <v>In</v>
       </c>
       <c r="I605" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2170</v>
       </c>
     </row>
@@ -18523,7 +18525,7 @@
         <v>Out</v>
       </c>
       <c r="I606" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-2170</v>
       </c>
     </row>
@@ -18548,7 +18550,7 @@
         <v>In</v>
       </c>
       <c r="I607" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1500</v>
       </c>
     </row>
@@ -18573,7 +18575,7 @@
         <v>In</v>
       </c>
       <c r="I608" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1771</v>
       </c>
     </row>
@@ -18598,7 +18600,7 @@
         <v>In</v>
       </c>
       <c r="I609" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3732</v>
       </c>
     </row>
@@ -18623,7 +18625,7 @@
         <v>In</v>
       </c>
       <c r="I610" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1000</v>
       </c>
     </row>
@@ -18648,7 +18650,7 @@
         <v>In</v>
       </c>
       <c r="I611" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5800</v>
       </c>
     </row>
@@ -18673,7 +18675,7 @@
         <v>In</v>
       </c>
       <c r="I612" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8063</v>
       </c>
     </row>
@@ -18698,7 +18700,7 @@
         <v>In</v>
       </c>
       <c r="I613" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1854</v>
       </c>
     </row>
@@ -18723,7 +18725,7 @@
         <v>Out</v>
       </c>
       <c r="I614" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-9878</v>
       </c>
     </row>
@@ -18748,7 +18750,7 @@
         <v>Out</v>
       </c>
       <c r="I615" s="7">
-        <f t="shared" ref="I615" si="87">IF(G615="Out",C615*-1,C615)</f>
+        <f t="shared" ref="I615" si="88">IF(G615="Out",C615*-1,C615)</f>
         <v>-5755</v>
       </c>
     </row>
@@ -18773,7 +18775,7 @@
         <v>Out</v>
       </c>
       <c r="I616" s="7">
-        <f t="shared" ref="I616:I619" si="88">IF(G616="Out",C616*-1,C616)</f>
+        <f t="shared" ref="I616:I619" si="89">IF(G616="Out",C616*-1,C616)</f>
         <v>-1000</v>
       </c>
     </row>
@@ -18799,7 +18801,7 @@
       </c>
       <c r="H617" s="15"/>
       <c r="I617" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1000</v>
       </c>
     </row>
@@ -18825,7 +18827,7 @@
       </c>
       <c r="H618" s="15"/>
       <c r="I618" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-1000</v>
       </c>
     </row>
@@ -18850,7 +18852,7 @@
         <v>Out</v>
       </c>
       <c r="I619" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-10010</v>
       </c>
     </row>
@@ -18875,7 +18877,7 @@
         <v>Out</v>
       </c>
       <c r="I620" s="7">
-        <f t="shared" ref="I620" si="89">IF(G620="Out",C620*-1,C620)</f>
+        <f t="shared" ref="I620" si="90">IF(G620="Out",C620*-1,C620)</f>
         <v>-27000</v>
       </c>
     </row>
@@ -18900,7 +18902,7 @@
         <v>Out</v>
       </c>
       <c r="I621" s="7">
-        <f t="shared" ref="I621" si="90">IF(G621="Out",C621*-1,C621)</f>
+        <f t="shared" ref="I621" si="91">IF(G621="Out",C621*-1,C621)</f>
         <v>-18000</v>
       </c>
     </row>
@@ -18925,7 +18927,7 @@
         <v>In</v>
       </c>
       <c r="I622" s="7">
-        <f t="shared" ref="I622:I624" si="91">IF(G622="Out",C622*-1,C622)</f>
+        <f t="shared" ref="I622:I624" si="92">IF(G622="Out",C622*-1,C622)</f>
         <v>9000</v>
       </c>
     </row>
@@ -18950,7 +18952,7 @@
         <v>Out</v>
       </c>
       <c r="I623" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-9000</v>
       </c>
     </row>
@@ -18975,7 +18977,7 @@
         <v>Out</v>
       </c>
       <c r="I624" s="7">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-9131</v>
       </c>
       <c r="K624" s="7" t="s">
@@ -19006,7 +19008,7 @@
         <v>Out</v>
       </c>
       <c r="I625" s="7">
-        <f t="shared" ref="I625:I688" si="92">IF(G625="Out",C625*-1,C625)</f>
+        <f t="shared" ref="I625:I688" si="93">IF(G625="Out",C625*-1,C625)</f>
         <v>-1784</v>
       </c>
       <c r="K625" s="7" t="s">
@@ -19037,7 +19039,7 @@
         <v>Out</v>
       </c>
       <c r="I626" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3792</v>
       </c>
       <c r="K626" s="7" t="s">
@@ -19068,7 +19070,7 @@
         <v>Out</v>
       </c>
       <c r="I627" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1300</v>
       </c>
       <c r="K627" s="7" t="s">
@@ -19099,7 +19101,7 @@
         <v>Out</v>
       </c>
       <c r="I628" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-638</v>
       </c>
       <c r="K628" s="7" t="s">
@@ -19130,7 +19132,7 @@
         <v>Out</v>
       </c>
       <c r="I629" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-170</v>
       </c>
       <c r="K629" s="7" t="s">
@@ -19161,7 +19163,7 @@
         <v>Out</v>
       </c>
       <c r="I630" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2948</v>
       </c>
       <c r="K630" s="7" t="s">
@@ -19192,7 +19194,7 @@
         <v>Out</v>
       </c>
       <c r="I631" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-819</v>
       </c>
       <c r="K631" s="5" t="s">
@@ -19223,7 +19225,7 @@
         <v>Out</v>
       </c>
       <c r="I632" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1592</v>
       </c>
       <c r="K632" s="7" t="s">
@@ -19254,7 +19256,7 @@
         <v>Out</v>
       </c>
       <c r="I633" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-220</v>
       </c>
       <c r="K633" s="7" t="s">
@@ -19285,7 +19287,7 @@
         <v>Out</v>
       </c>
       <c r="I634" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3132</v>
       </c>
       <c r="K634" s="7" t="s">
@@ -19316,7 +19318,7 @@
         <v>Out</v>
       </c>
       <c r="I635" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-150</v>
       </c>
       <c r="K635" s="7" t="s">
@@ -19347,7 +19349,7 @@
         <v>Out</v>
       </c>
       <c r="I636" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-443</v>
       </c>
       <c r="K636" s="7" t="s">
@@ -19378,7 +19380,7 @@
         <v>Out</v>
       </c>
       <c r="I637" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-84</v>
       </c>
       <c r="K637" s="7" t="s">
@@ -19409,7 +19411,7 @@
         <v>Out</v>
       </c>
       <c r="I638" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1989</v>
       </c>
       <c r="K638" s="7" t="s">
@@ -19440,7 +19442,7 @@
         <v>Out</v>
       </c>
       <c r="I639" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2248</v>
       </c>
       <c r="K639" s="7" t="s">
@@ -19471,7 +19473,7 @@
         <v>Out</v>
       </c>
       <c r="I640" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-302</v>
       </c>
       <c r="K640" s="7" t="s">
@@ -19502,7 +19504,7 @@
         <v>Out</v>
       </c>
       <c r="I641" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3020</v>
       </c>
       <c r="K641" s="7" t="s">
@@ -19533,7 +19535,7 @@
         <v>Out</v>
       </c>
       <c r="I642" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-150</v>
       </c>
       <c r="K642" s="7" t="s">
@@ -19564,7 +19566,7 @@
         <v>Out</v>
       </c>
       <c r="I643" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1366</v>
       </c>
       <c r="K643" s="7" t="s">
@@ -19595,7 +19597,7 @@
         <v>Out</v>
       </c>
       <c r="I644" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-875</v>
       </c>
       <c r="K644" s="7" t="s">
@@ -19626,7 +19628,7 @@
         <v>Out</v>
       </c>
       <c r="I645" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1299</v>
       </c>
       <c r="K645" s="7" t="s">
@@ -19657,7 +19659,7 @@
         <v>Out</v>
       </c>
       <c r="I646" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1615</v>
       </c>
       <c r="K646" s="7" t="s">
@@ -19688,7 +19690,7 @@
         <v>Out</v>
       </c>
       <c r="I647" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-132</v>
       </c>
       <c r="K647" s="7" t="s">
@@ -19719,7 +19721,7 @@
         <v>Out</v>
       </c>
       <c r="I648" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2035</v>
       </c>
       <c r="K648" s="7" t="s">
@@ -19750,7 +19752,7 @@
         <v>Out</v>
       </c>
       <c r="I649" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1288</v>
       </c>
       <c r="K649" s="7" t="s">
@@ -19781,7 +19783,7 @@
         <v>Out</v>
       </c>
       <c r="I650" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-427</v>
       </c>
       <c r="K650" s="7" t="s">
@@ -19812,7 +19814,7 @@
         <v>Out</v>
       </c>
       <c r="I651" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2677</v>
       </c>
       <c r="K651" s="7" t="s">
@@ -19843,7 +19845,7 @@
         <v>Out</v>
       </c>
       <c r="I652" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-982</v>
       </c>
       <c r="K652" s="7" t="s">
@@ -19874,7 +19876,7 @@
         <v>Out</v>
       </c>
       <c r="I653" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-524</v>
       </c>
       <c r="K653" s="7" t="s">
@@ -19905,7 +19907,7 @@
         <v>Out</v>
       </c>
       <c r="I654" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1303</v>
       </c>
       <c r="K654" s="7" t="s">
@@ -19936,7 +19938,7 @@
         <v>Out</v>
       </c>
       <c r="I655" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1663</v>
       </c>
       <c r="K655" s="7" t="s">
@@ -19967,7 +19969,7 @@
         <v>Out</v>
       </c>
       <c r="I656" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-8076</v>
       </c>
       <c r="K656" s="7" t="s">
@@ -19998,7 +20000,7 @@
         <v>Out</v>
       </c>
       <c r="I657" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-605</v>
       </c>
       <c r="K657" s="7" t="s">
@@ -20029,7 +20031,7 @@
         <v>Out</v>
       </c>
       <c r="I658" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-291</v>
       </c>
       <c r="K658" s="7" t="s">
@@ -20060,7 +20062,7 @@
         <v>Out</v>
       </c>
       <c r="I659" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-4257</v>
       </c>
       <c r="K659" s="7" t="s">
@@ -20091,7 +20093,7 @@
         <v>Out</v>
       </c>
       <c r="I660" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1105</v>
       </c>
       <c r="K660" s="7" t="s">
@@ -20122,7 +20124,7 @@
         <v>Out</v>
       </c>
       <c r="I661" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1582</v>
       </c>
       <c r="K661" s="7" t="s">
@@ -20153,7 +20155,7 @@
         <v>Out</v>
       </c>
       <c r="I662" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1246</v>
       </c>
       <c r="K662" s="7" t="s">
@@ -20184,7 +20186,7 @@
         <v>Out</v>
       </c>
       <c r="I663" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-3840</v>
       </c>
       <c r="K663" s="7" t="s">
@@ -20215,7 +20217,7 @@
         <v>Out</v>
       </c>
       <c r="I664" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-160</v>
       </c>
       <c r="K664" s="7" t="s">
@@ -20246,7 +20248,7 @@
         <v>Out</v>
       </c>
       <c r="I665" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-997</v>
       </c>
     </row>
@@ -20271,7 +20273,7 @@
         <v>Out</v>
       </c>
       <c r="I666" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-330</v>
       </c>
     </row>
@@ -20296,7 +20298,7 @@
         <v>Out</v>
       </c>
       <c r="I667" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-408</v>
       </c>
     </row>
@@ -20321,7 +20323,7 @@
         <v>Out</v>
       </c>
       <c r="I668" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-736</v>
       </c>
     </row>
@@ -20346,7 +20348,7 @@
         <v>Out</v>
       </c>
       <c r="I669" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1278</v>
       </c>
     </row>
@@ -20371,7 +20373,7 @@
         <v>Out</v>
       </c>
       <c r="I670" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-829</v>
       </c>
     </row>
@@ -20396,7 +20398,7 @@
         <v>Out</v>
       </c>
       <c r="I671" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2662</v>
       </c>
     </row>
@@ -20421,7 +20423,7 @@
         <v>Out</v>
       </c>
       <c r="I672" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-332</v>
       </c>
     </row>
@@ -20446,7 +20448,7 @@
         <v>Out</v>
       </c>
       <c r="I673" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-302</v>
       </c>
     </row>
@@ -20471,7 +20473,7 @@
         <v>Out</v>
       </c>
       <c r="I674" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1274</v>
       </c>
     </row>
@@ -20496,7 +20498,7 @@
         <v>Out</v>
       </c>
       <c r="I675" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1118</v>
       </c>
     </row>
@@ -20521,7 +20523,7 @@
         <v>Out</v>
       </c>
       <c r="I676" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-254</v>
       </c>
     </row>
@@ -20546,7 +20548,7 @@
         <v>Out</v>
       </c>
       <c r="I677" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2387</v>
       </c>
     </row>
@@ -20571,7 +20573,7 @@
         <v>Out</v>
       </c>
       <c r="I678" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1300</v>
       </c>
     </row>
@@ -20596,7 +20598,7 @@
         <v>Out</v>
       </c>
       <c r="I679" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1094</v>
       </c>
     </row>
@@ -20621,7 +20623,7 @@
         <v>Out</v>
       </c>
       <c r="I680" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1112</v>
       </c>
     </row>
@@ -20646,7 +20648,7 @@
         <v>Out</v>
       </c>
       <c r="I681" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-1115</v>
       </c>
     </row>
@@ -20671,7 +20673,7 @@
         <v>Out</v>
       </c>
       <c r="I682" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-2394</v>
       </c>
     </row>
@@ -20696,7 +20698,7 @@
         <v>Out</v>
       </c>
       <c r="I683" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-562</v>
       </c>
     </row>
@@ -20721,7 +20723,7 @@
         <v>Out</v>
       </c>
       <c r="I684" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-101</v>
       </c>
     </row>
@@ -20746,7 +20748,7 @@
         <v>Out</v>
       </c>
       <c r="I685" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-5240</v>
       </c>
     </row>
@@ -20771,7 +20773,7 @@
         <v>Out</v>
       </c>
       <c r="I686" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-660</v>
       </c>
     </row>
@@ -20796,7 +20798,7 @@
         <v>Out</v>
       </c>
       <c r="I687" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-7953</v>
       </c>
     </row>
@@ -20821,7 +20823,7 @@
         <v>Out</v>
       </c>
       <c r="I688" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>-593</v>
       </c>
     </row>
@@ -20846,7 +20848,7 @@
         <v>Out</v>
       </c>
       <c r="I689" s="7">
-        <f t="shared" ref="I689" si="93">IF(G689="Out",C689*-1,C689)</f>
+        <f t="shared" ref="I689" si="94">IF(G689="Out",C689*-1,C689)</f>
         <v>-130</v>
       </c>
     </row>
@@ -20871,7 +20873,7 @@
         <v>Out</v>
       </c>
       <c r="I690" s="7">
-        <f t="shared" ref="I690:I694" si="94">IF(G690="Out",C690*-1,C690)</f>
+        <f t="shared" ref="I690:I694" si="95">IF(G690="Out",C690*-1,C690)</f>
         <v>-2450</v>
       </c>
     </row>
@@ -20896,7 +20898,7 @@
         <v>Out</v>
       </c>
       <c r="I691" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-8780</v>
       </c>
     </row>
@@ -20921,7 +20923,7 @@
         <v>Out</v>
       </c>
       <c r="I692" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-5606</v>
       </c>
     </row>
@@ -20946,7 +20948,7 @@
         <v>Out</v>
       </c>
       <c r="I693" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-2937</v>
       </c>
     </row>
@@ -20971,7 +20973,7 @@
         <v>Out</v>
       </c>
       <c r="I694" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-1000</v>
       </c>
     </row>
@@ -20996,7 +20998,7 @@
         <v>In</v>
       </c>
       <c r="I695" s="7">
-        <f t="shared" ref="I695:I701" si="95">IF(G695="Out",C695*-1,C695)</f>
+        <f t="shared" ref="I695:I701" si="96">IF(G695="Out",C695*-1,C695)</f>
         <v>5027</v>
       </c>
     </row>
@@ -21021,7 +21023,7 @@
         <v>In</v>
       </c>
       <c r="I696" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>7000</v>
       </c>
     </row>
@@ -21046,7 +21048,7 @@
         <v>In</v>
       </c>
       <c r="I697" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1500</v>
       </c>
     </row>
@@ -21071,7 +21073,7 @@
         <v>In</v>
       </c>
       <c r="I698" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1200</v>
       </c>
     </row>
@@ -21096,7 +21098,7 @@
         <v>In</v>
       </c>
       <c r="I699" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1150</v>
       </c>
     </row>
@@ -21121,7 +21123,7 @@
         <v>In</v>
       </c>
       <c r="I700" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1500</v>
       </c>
     </row>
@@ -21146,7 +21148,7 @@
         <v>In</v>
       </c>
       <c r="I701" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4356</v>
       </c>
     </row>
@@ -21171,7 +21173,7 @@
         <v>In</v>
       </c>
       <c r="I702" s="7">
-        <f t="shared" ref="I702" si="96">IF(G702="Out",C702*-1,C702)</f>
+        <f t="shared" ref="I702" si="97">IF(G702="Out",C702*-1,C702)</f>
         <v>10000</v>
       </c>
     </row>
@@ -21196,7 +21198,7 @@
         <v>In</v>
       </c>
       <c r="I703" s="7">
-        <f t="shared" ref="I703:I713" si="97">IF(G703="Out",C703*-1,C703)</f>
+        <f t="shared" ref="I703:I713" si="98">IF(G703="Out",C703*-1,C703)</f>
         <v>10000</v>
       </c>
     </row>
@@ -21221,7 +21223,7 @@
         <v>In</v>
       </c>
       <c r="I704" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21246,7 +21248,7 @@
         <v>In</v>
       </c>
       <c r="I705" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21271,7 +21273,7 @@
         <v>In</v>
       </c>
       <c r="I706" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21296,7 +21298,7 @@
         <v>In</v>
       </c>
       <c r="I707" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>8000</v>
       </c>
     </row>
@@ -21321,7 +21323,7 @@
         <v>In</v>
       </c>
       <c r="I708" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21346,7 +21348,7 @@
         <v>In</v>
       </c>
       <c r="I709" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21371,7 +21373,7 @@
         <v>In</v>
       </c>
       <c r="I710" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21396,7 +21398,7 @@
         <v>In</v>
       </c>
       <c r="I711" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21421,7 +21423,7 @@
         <v>In</v>
       </c>
       <c r="I712" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21446,7 +21448,7 @@
         <v>In</v>
       </c>
       <c r="I713" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10000</v>
       </c>
     </row>
@@ -21471,7 +21473,7 @@
         <v>In</v>
       </c>
       <c r="I714" s="7">
-        <f t="shared" ref="I714:I715" si="98">IF(G714="Out",C714*-1,C714)</f>
+        <f t="shared" ref="I714:I715" si="99">IF(G714="Out",C714*-1,C714)</f>
         <v>823</v>
       </c>
     </row>
@@ -21496,7 +21498,7 @@
         <v>In</v>
       </c>
       <c r="I715" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1265</v>
       </c>
     </row>
@@ -21514,7 +21516,7 @@
         <v>67</v>
       </c>
       <c r="E716" s="7" t="str">
-        <f>VLOOKUP(B716,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" ref="E716:E747" si="100">VLOOKUP(B716,$K$624:$L$655,2,FALSE)</f>
         <v>Groceries</v>
       </c>
       <c r="G716" s="13" t="str">
@@ -21522,7 +21524,7 @@
         <v>Out</v>
       </c>
       <c r="I716" s="7">
-        <f t="shared" ref="I716:I779" si="99">IF(G716="Out",C716*-1,C716)</f>
+        <f t="shared" ref="I716:I779" si="101">IF(G716="Out",C716*-1,C716)</f>
         <v>-406</v>
       </c>
     </row>
@@ -21540,7 +21542,7 @@
         <v>67</v>
       </c>
       <c r="E717" s="7" t="str">
-        <f>VLOOKUP(B717,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G717" s="13" t="str">
@@ -21548,7 +21550,7 @@
         <v>Out</v>
       </c>
       <c r="I717" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-232</v>
       </c>
     </row>
@@ -21566,7 +21568,7 @@
         <v>67</v>
       </c>
       <c r="E718" s="7" t="str">
-        <f>VLOOKUP(B718,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Utilities</v>
       </c>
       <c r="G718" s="13" t="str">
@@ -21574,7 +21576,7 @@
         <v>Out</v>
       </c>
       <c r="I718" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-6869</v>
       </c>
     </row>
@@ -21592,7 +21594,7 @@
         <v>67</v>
       </c>
       <c r="E719" s="7" t="str">
-        <f>VLOOKUP(B719,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G719" s="13" t="str">
@@ -21600,7 +21602,7 @@
         <v>Out</v>
       </c>
       <c r="I719" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-3636</v>
       </c>
     </row>
@@ -21618,7 +21620,7 @@
         <v>67</v>
       </c>
       <c r="E720" s="7" t="str">
-        <f>VLOOKUP(B720,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G720" s="13" t="str">
@@ -21626,7 +21628,7 @@
         <v>Out</v>
       </c>
       <c r="I720" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-2271</v>
       </c>
     </row>
@@ -21644,7 +21646,7 @@
         <v>67</v>
       </c>
       <c r="E721" s="7" t="str">
-        <f>VLOOKUP(B721,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Eating Out</v>
       </c>
       <c r="G721" s="13" t="str">
@@ -21652,7 +21654,7 @@
         <v>Out</v>
       </c>
       <c r="I721" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1162</v>
       </c>
     </row>
@@ -21670,7 +21672,7 @@
         <v>67</v>
       </c>
       <c r="E722" s="7" t="str">
-        <f>VLOOKUP(B722,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G722" s="13" t="str">
@@ -21678,7 +21680,7 @@
         <v>Out</v>
       </c>
       <c r="I722" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-254</v>
       </c>
     </row>
@@ -21696,7 +21698,7 @@
         <v>67</v>
       </c>
       <c r="E723" s="7" t="str">
-        <f>VLOOKUP(B723,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G723" s="13" t="str">
@@ -21704,7 +21706,7 @@
         <v>Out</v>
       </c>
       <c r="I723" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-351</v>
       </c>
     </row>
@@ -21722,7 +21724,7 @@
         <v>67</v>
       </c>
       <c r="E724" s="7" t="str">
-        <f>VLOOKUP(B724,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G724" s="13" t="str">
@@ -21730,7 +21732,7 @@
         <v>Out</v>
       </c>
       <c r="I724" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1080</v>
       </c>
     </row>
@@ -21748,7 +21750,7 @@
         <v>67</v>
       </c>
       <c r="E725" s="7" t="str">
-        <f>VLOOKUP(B725,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G725" s="13" t="str">
@@ -21756,7 +21758,7 @@
         <v>Out</v>
       </c>
       <c r="I725" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-419</v>
       </c>
     </row>
@@ -21774,7 +21776,7 @@
         <v>67</v>
       </c>
       <c r="E726" s="7" t="str">
-        <f>VLOOKUP(B726,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Household Supplies</v>
       </c>
       <c r="G726" s="13" t="str">
@@ -21782,7 +21784,7 @@
         <v>Out</v>
       </c>
       <c r="I726" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-140</v>
       </c>
     </row>
@@ -21800,7 +21802,7 @@
         <v>67</v>
       </c>
       <c r="E727" s="7" t="str">
-        <f>VLOOKUP(B727,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Household Supplies</v>
       </c>
       <c r="G727" s="13" t="str">
@@ -21808,7 +21810,7 @@
         <v>Out</v>
       </c>
       <c r="I727" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-203</v>
       </c>
     </row>
@@ -21826,7 +21828,7 @@
         <v>67</v>
       </c>
       <c r="E728" s="7" t="str">
-        <f>VLOOKUP(B728,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Medical</v>
       </c>
       <c r="G728" s="13" t="str">
@@ -21834,7 +21836,7 @@
         <v>Out</v>
       </c>
       <c r="I728" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-3780</v>
       </c>
     </row>
@@ -21852,7 +21854,7 @@
         <v>67</v>
       </c>
       <c r="E729" s="7" t="str">
-        <f>VLOOKUP(B729,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G729" s="13" t="str">
@@ -21860,7 +21862,7 @@
         <v>Out</v>
       </c>
       <c r="I729" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-734</v>
       </c>
     </row>
@@ -21878,7 +21880,7 @@
         <v>67</v>
       </c>
       <c r="E730" s="7" t="str">
-        <f>VLOOKUP(B730,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G730" s="13" t="str">
@@ -21886,7 +21888,7 @@
         <v>Out</v>
       </c>
       <c r="I730" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-233</v>
       </c>
     </row>
@@ -21904,7 +21906,7 @@
         <v>67</v>
       </c>
       <c r="E731" s="7" t="str">
-        <f>VLOOKUP(B731,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G731" s="13" t="str">
@@ -21912,7 +21914,7 @@
         <v>Out</v>
       </c>
       <c r="I731" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-635</v>
       </c>
     </row>
@@ -21930,7 +21932,7 @@
         <v>67</v>
       </c>
       <c r="E732" s="7" t="str">
-        <f>VLOOKUP(B732,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Medical</v>
       </c>
       <c r="G732" s="13" t="str">
@@ -21938,7 +21940,7 @@
         <v>Out</v>
       </c>
       <c r="I732" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-3850</v>
       </c>
     </row>
@@ -21956,7 +21958,7 @@
         <v>67</v>
       </c>
       <c r="E733" s="7" t="str">
-        <f>VLOOKUP(B733,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Eating Out</v>
       </c>
       <c r="G733" s="13" t="str">
@@ -21964,7 +21966,7 @@
         <v>Out</v>
       </c>
       <c r="I733" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-2772</v>
       </c>
     </row>
@@ -21982,7 +21984,7 @@
         <v>67</v>
       </c>
       <c r="E734" s="7" t="str">
-        <f>VLOOKUP(B734,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Eating Out</v>
       </c>
       <c r="G734" s="13" t="str">
@@ -21990,7 +21992,7 @@
         <v>Out</v>
       </c>
       <c r="I734" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-605</v>
       </c>
     </row>
@@ -22008,7 +22010,7 @@
         <v>67</v>
       </c>
       <c r="E735" s="7" t="str">
-        <f>VLOOKUP(B735,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Medical</v>
       </c>
       <c r="G735" s="13" t="str">
@@ -22016,7 +22018,7 @@
         <v>Out</v>
       </c>
       <c r="I735" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-4620</v>
       </c>
     </row>
@@ -22034,7 +22036,7 @@
         <v>67</v>
       </c>
       <c r="E736" s="7" t="str">
-        <f>VLOOKUP(B736,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Household Supplies</v>
       </c>
       <c r="G736" s="13" t="str">
@@ -22042,7 +22044,7 @@
         <v>Out</v>
       </c>
       <c r="I736" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-330</v>
       </c>
     </row>
@@ -22060,7 +22062,7 @@
         <v>67</v>
       </c>
       <c r="E737" s="7" t="str">
-        <f>VLOOKUP(B737,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Other Expense</v>
       </c>
       <c r="G737" s="13" t="str">
@@ -22068,7 +22070,7 @@
         <v>Out</v>
       </c>
       <c r="I737" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-2972</v>
       </c>
     </row>
@@ -22086,7 +22088,7 @@
         <v>67</v>
       </c>
       <c r="E738" s="7" t="str">
-        <f>VLOOKUP(B738,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G738" s="13" t="str">
@@ -22094,7 +22096,7 @@
         <v>Out</v>
       </c>
       <c r="I738" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-347</v>
       </c>
     </row>
@@ -22112,7 +22114,7 @@
         <v>67</v>
       </c>
       <c r="E739" s="7" t="str">
-        <f>VLOOKUP(B739,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Eating Out</v>
       </c>
       <c r="G739" s="13" t="str">
@@ -22120,7 +22122,7 @@
         <v>Out</v>
       </c>
       <c r="I739" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-363</v>
       </c>
     </row>
@@ -22138,7 +22140,7 @@
         <v>67</v>
       </c>
       <c r="E740" s="7" t="str">
-        <f>VLOOKUP(B740,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Other Expense</v>
       </c>
       <c r="G740" s="13" t="str">
@@ -22146,7 +22148,7 @@
         <v>Out</v>
       </c>
       <c r="I740" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-2847</v>
       </c>
     </row>
@@ -22164,7 +22166,7 @@
         <v>67</v>
       </c>
       <c r="E741" s="7" t="str">
-        <f>VLOOKUP(B741,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G741" s="13" t="str">
@@ -22172,7 +22174,7 @@
         <v>Out</v>
       </c>
       <c r="I741" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-253</v>
       </c>
     </row>
@@ -22190,7 +22192,7 @@
         <v>67</v>
       </c>
       <c r="E742" s="7" t="str">
-        <f>VLOOKUP(B742,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G742" s="13" t="str">
@@ -22198,7 +22200,7 @@
         <v>Out</v>
       </c>
       <c r="I742" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-2069</v>
       </c>
     </row>
@@ -22216,7 +22218,7 @@
         <v>67</v>
       </c>
       <c r="E743" s="7" t="str">
-        <f>VLOOKUP(B743,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G743" s="13" t="str">
@@ -22224,7 +22226,7 @@
         <v>Out</v>
       </c>
       <c r="I743" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-562</v>
       </c>
     </row>
@@ -22242,7 +22244,7 @@
         <v>67</v>
       </c>
       <c r="E744" s="7" t="str">
-        <f>VLOOKUP(B744,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Groceries</v>
       </c>
       <c r="G744" s="13" t="str">
@@ -22250,7 +22252,7 @@
         <v>Out</v>
       </c>
       <c r="I744" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-3515</v>
       </c>
     </row>
@@ -22268,7 +22270,7 @@
         <v>67</v>
       </c>
       <c r="E745" s="7" t="str">
-        <f>VLOOKUP(B745,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Fashion</v>
       </c>
       <c r="G745" s="13" t="str">
@@ -22276,7 +22278,7 @@
         <v>Out</v>
       </c>
       <c r="I745" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1298</v>
       </c>
     </row>
@@ -22294,7 +22296,7 @@
         <v>67</v>
       </c>
       <c r="E746" s="7" t="str">
-        <f>VLOOKUP(B746,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Household Supplies</v>
       </c>
       <c r="G746" s="13" t="str">
@@ -22302,7 +22304,7 @@
         <v>Out</v>
       </c>
       <c r="I746" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-990</v>
       </c>
     </row>
@@ -22320,7 +22322,7 @@
         <v>67</v>
       </c>
       <c r="E747" s="7" t="str">
-        <f>VLOOKUP(B747,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="100"/>
         <v>Fashion</v>
       </c>
       <c r="G747" s="13" t="str">
@@ -22328,7 +22330,7 @@
         <v>Out</v>
       </c>
       <c r="I747" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-649</v>
       </c>
     </row>
@@ -22346,7 +22348,7 @@
         <v>67</v>
       </c>
       <c r="E748" s="7" t="str">
-        <f>VLOOKUP(B748,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" ref="E748:E779" si="102">VLOOKUP(B748,$K$624:$L$655,2,FALSE)</f>
         <v>Groceries</v>
       </c>
       <c r="G748" s="13" t="str">
@@ -22354,7 +22356,7 @@
         <v>Out</v>
       </c>
       <c r="I748" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-3549</v>
       </c>
     </row>
@@ -22372,7 +22374,7 @@
         <v>67</v>
       </c>
       <c r="E749" s="7" t="str">
-        <f>VLOOKUP(B749,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G749" s="13" t="str">
@@ -22380,7 +22382,7 @@
         <v>Out</v>
       </c>
       <c r="I749" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-146</v>
       </c>
     </row>
@@ -22398,7 +22400,7 @@
         <v>67</v>
       </c>
       <c r="E750" s="7" t="str">
-        <f>VLOOKUP(B750,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G750" s="13" t="str">
@@ -22406,7 +22408,7 @@
         <v>Out</v>
       </c>
       <c r="I750" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-451</v>
       </c>
     </row>
@@ -22424,7 +22426,7 @@
         <v>67</v>
       </c>
       <c r="E751" s="7" t="str">
-        <f>VLOOKUP(B751,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Household Supplies</v>
       </c>
       <c r="G751" s="13" t="str">
@@ -22432,7 +22434,7 @@
         <v>Out</v>
       </c>
       <c r="I751" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-330</v>
       </c>
     </row>
@@ -22450,7 +22452,7 @@
         <v>67</v>
       </c>
       <c r="E752" s="7" t="str">
-        <f>VLOOKUP(B752,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G752" s="13" t="str">
@@ -22458,7 +22460,7 @@
         <v>Out</v>
       </c>
       <c r="I752" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1470</v>
       </c>
     </row>
@@ -22476,7 +22478,7 @@
         <v>67</v>
       </c>
       <c r="E753" s="7" t="str">
-        <f>VLOOKUP(B753,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Other Expense</v>
       </c>
       <c r="G753" s="13" t="str">
@@ -22484,7 +22486,7 @@
         <v>Out</v>
       </c>
       <c r="I753" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-300</v>
       </c>
     </row>
@@ -22502,7 +22504,7 @@
         <v>67</v>
       </c>
       <c r="E754" s="7" t="str">
-        <f>VLOOKUP(B754,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G754" s="13" t="str">
@@ -22510,7 +22512,7 @@
         <v>Out</v>
       </c>
       <c r="I754" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-4853</v>
       </c>
     </row>
@@ -22528,7 +22530,7 @@
         <v>67</v>
       </c>
       <c r="E755" s="7" t="str">
-        <f>VLOOKUP(B755,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Unknown</v>
       </c>
       <c r="G755" s="13" t="str">
@@ -22536,7 +22538,7 @@
         <v>Out</v>
       </c>
       <c r="I755" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-180</v>
       </c>
     </row>
@@ -22554,7 +22556,7 @@
         <v>67</v>
       </c>
       <c r="E756" s="7" t="str">
-        <f>VLOOKUP(B756,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G756" s="13" t="str">
@@ -22562,7 +22564,7 @@
         <v>Out</v>
       </c>
       <c r="I756" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-953</v>
       </c>
     </row>
@@ -22580,7 +22582,7 @@
         <v>67</v>
       </c>
       <c r="E757" s="7" t="str">
-        <f>VLOOKUP(B757,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Utilities</v>
       </c>
       <c r="G757" s="13" t="str">
@@ -22588,7 +22590,7 @@
         <v>Out</v>
       </c>
       <c r="I757" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-8309</v>
       </c>
     </row>
@@ -22606,7 +22608,7 @@
         <v>67</v>
       </c>
       <c r="E758" s="7" t="str">
-        <f>VLOOKUP(B758,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G758" s="13" t="str">
@@ -22614,7 +22616,7 @@
         <v>Out</v>
       </c>
       <c r="I758" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1736</v>
       </c>
     </row>
@@ -22632,7 +22634,7 @@
         <v>67</v>
       </c>
       <c r="E759" s="7" t="str">
-        <f>VLOOKUP(B759,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Eating Out</v>
       </c>
       <c r="G759" s="13" t="str">
@@ -22640,7 +22642,7 @@
         <v>Out</v>
       </c>
       <c r="I759" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-363</v>
       </c>
     </row>
@@ -22658,7 +22660,7 @@
         <v>67</v>
       </c>
       <c r="E760" s="7" t="str">
-        <f>VLOOKUP(B760,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G760" s="13" t="str">
@@ -22666,7 +22668,7 @@
         <v>Out</v>
       </c>
       <c r="I760" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-175</v>
       </c>
     </row>
@@ -22684,7 +22686,7 @@
         <v>67</v>
       </c>
       <c r="E761" s="7" t="str">
-        <f>VLOOKUP(B761,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G761" s="13" t="str">
@@ -22692,7 +22694,7 @@
         <v>Out</v>
       </c>
       <c r="I761" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-744</v>
       </c>
     </row>
@@ -22710,7 +22712,7 @@
         <v>67</v>
       </c>
       <c r="E762" s="7" t="str">
-        <f>VLOOKUP(B762,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Unknown</v>
       </c>
       <c r="G762" s="13" t="str">
@@ -22718,7 +22720,7 @@
         <v>Out</v>
       </c>
       <c r="I762" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-420</v>
       </c>
     </row>
@@ -22736,7 +22738,7 @@
         <v>67</v>
       </c>
       <c r="E763" s="7" t="str">
-        <f>VLOOKUP(B763,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Eating Out</v>
       </c>
       <c r="G763" s="13" t="str">
@@ -22744,7 +22746,7 @@
         <v>Out</v>
       </c>
       <c r="I763" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-187</v>
       </c>
     </row>
@@ -22762,7 +22764,7 @@
         <v>67</v>
       </c>
       <c r="E764" s="7" t="str">
-        <f>VLOOKUP(B764,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G764" s="13" t="str">
@@ -22770,7 +22772,7 @@
         <v>Out</v>
       </c>
       <c r="I764" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-570</v>
       </c>
     </row>
@@ -22788,7 +22790,7 @@
         <v>67</v>
       </c>
       <c r="E765" s="7" t="str">
-        <f>VLOOKUP(B765,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Household Supplies</v>
       </c>
       <c r="G765" s="13" t="str">
@@ -22796,7 +22798,7 @@
         <v>Out</v>
       </c>
       <c r="I765" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-660</v>
       </c>
     </row>
@@ -22814,7 +22816,7 @@
         <v>67</v>
       </c>
       <c r="E766" s="7" t="str">
-        <f>VLOOKUP(B766,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Eating Out</v>
       </c>
       <c r="G766" s="13" t="str">
@@ -22822,7 +22824,7 @@
         <v>Out</v>
       </c>
       <c r="I766" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-590</v>
       </c>
     </row>
@@ -22840,7 +22842,7 @@
         <v>67</v>
       </c>
       <c r="E767" s="7" t="str">
-        <f>VLOOKUP(B767,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Unknown</v>
       </c>
       <c r="G767" s="13" t="str">
@@ -22848,7 +22850,7 @@
         <v>Out</v>
       </c>
       <c r="I767" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-561</v>
       </c>
     </row>
@@ -22866,7 +22868,7 @@
         <v>67</v>
       </c>
       <c r="E768" s="7" t="str">
-        <f>VLOOKUP(B768,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G768" s="13" t="str">
@@ -22874,7 +22876,7 @@
         <v>Out</v>
       </c>
       <c r="I768" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-5280</v>
       </c>
     </row>
@@ -22892,7 +22894,7 @@
         <v>67</v>
       </c>
       <c r="E769" s="7" t="str">
-        <f>VLOOKUP(B769,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G769" s="13" t="str">
@@ -22900,7 +22902,7 @@
         <v>Out</v>
       </c>
       <c r="I769" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1448</v>
       </c>
     </row>
@@ -22918,7 +22920,7 @@
         <v>67</v>
       </c>
       <c r="E770" s="7" t="str">
-        <f>VLOOKUP(B770,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G770" s="13" t="str">
@@ -22926,7 +22928,7 @@
         <v>Out</v>
       </c>
       <c r="I770" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1215</v>
       </c>
     </row>
@@ -22944,7 +22946,7 @@
         <v>67</v>
       </c>
       <c r="E771" s="7" t="str">
-        <f>VLOOKUP(B771,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Groceries</v>
       </c>
       <c r="G771" s="13" t="str">
@@ -22952,7 +22954,7 @@
         <v>Out</v>
       </c>
       <c r="I771" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-295</v>
       </c>
     </row>
@@ -22970,7 +22972,7 @@
         <v>67</v>
       </c>
       <c r="E772" s="7" t="str">
-        <f>VLOOKUP(B772,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Eating Out</v>
       </c>
       <c r="G772" s="13" t="str">
@@ -22978,7 +22980,7 @@
         <v>Out</v>
       </c>
       <c r="I772" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1758</v>
       </c>
     </row>
@@ -22996,7 +22998,7 @@
         <v>67</v>
       </c>
       <c r="E773" s="7" t="str">
-        <f>VLOOKUP(B773,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Household Supplies</v>
       </c>
       <c r="G773" s="13" t="str">
@@ -23004,7 +23006,7 @@
         <v>Out</v>
       </c>
       <c r="I773" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1298</v>
       </c>
     </row>
@@ -23022,7 +23024,7 @@
         <v>67</v>
       </c>
       <c r="E774" s="7" t="str">
-        <f>VLOOKUP(B774,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Other Expense</v>
       </c>
       <c r="G774" s="13" t="str">
@@ -23030,7 +23032,7 @@
         <v>Out</v>
       </c>
       <c r="I774" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1610</v>
       </c>
     </row>
@@ -23048,7 +23050,7 @@
         <v>67</v>
       </c>
       <c r="E775" s="7" t="str">
-        <f>VLOOKUP(B775,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Eating Out</v>
       </c>
       <c r="G775" s="13" t="str">
@@ -23056,7 +23058,7 @@
         <v>Out</v>
       </c>
       <c r="I775" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-5500</v>
       </c>
     </row>
@@ -23074,7 +23076,7 @@
         <v>67</v>
       </c>
       <c r="E776" s="7" t="str">
-        <f>VLOOKUP(B776,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Household Supplies</v>
       </c>
       <c r="G776" s="13" t="str">
@@ -23082,7 +23084,7 @@
         <v>Out</v>
       </c>
       <c r="I776" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-1518</v>
       </c>
     </row>
@@ -23100,7 +23102,7 @@
         <v>67</v>
       </c>
       <c r="E777" s="7" t="str">
-        <f>VLOOKUP(B777,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Household Supplies</v>
       </c>
       <c r="G777" s="13" t="str">
@@ -23108,7 +23110,7 @@
         <v>Out</v>
       </c>
       <c r="I777" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-330</v>
       </c>
     </row>
@@ -23126,7 +23128,7 @@
         <v>67</v>
       </c>
       <c r="E778" s="7" t="str">
-        <f>VLOOKUP(B778,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Other Expense</v>
       </c>
       <c r="G778" s="13" t="str">
@@ -23134,7 +23136,7 @@
         <v>Out</v>
       </c>
       <c r="I778" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-500</v>
       </c>
     </row>
@@ -23152,7 +23154,7 @@
         <v>67</v>
       </c>
       <c r="E779" s="7" t="str">
-        <f>VLOOKUP(B779,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="102"/>
         <v>Unknown</v>
       </c>
       <c r="G779" s="13" t="str">
@@ -23160,7 +23162,7 @@
         <v>Out</v>
       </c>
       <c r="I779" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>-540</v>
       </c>
     </row>
@@ -23178,7 +23180,7 @@
         <v>67</v>
       </c>
       <c r="E780" s="7" t="str">
-        <f>VLOOKUP(B780,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" ref="E780:E811" si="103">VLOOKUP(B780,$K$624:$L$655,2,FALSE)</f>
         <v>Unknown</v>
       </c>
       <c r="G780" s="13" t="str">
@@ -23186,7 +23188,7 @@
         <v>Out</v>
       </c>
       <c r="I780" s="7">
-        <f t="shared" ref="I780:I826" si="100">IF(G780="Out",C780*-1,C780)</f>
+        <f t="shared" ref="I780:I826" si="104">IF(G780="Out",C780*-1,C780)</f>
         <v>-1620</v>
       </c>
     </row>
@@ -23204,7 +23206,7 @@
         <v>67</v>
       </c>
       <c r="E781" s="7" t="str">
-        <f>VLOOKUP(B781,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Household Supplies</v>
       </c>
       <c r="G781" s="13" t="str">
@@ -23212,7 +23214,7 @@
         <v>Out</v>
       </c>
       <c r="I781" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-990</v>
       </c>
     </row>
@@ -23230,7 +23232,7 @@
         <v>67</v>
       </c>
       <c r="E782" s="7" t="str">
-        <f>VLOOKUP(B782,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Other Expense</v>
       </c>
       <c r="G782" s="13" t="str">
@@ -23238,7 +23240,7 @@
         <v>Out</v>
       </c>
       <c r="I782" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-5400</v>
       </c>
     </row>
@@ -23256,7 +23258,7 @@
         <v>67</v>
       </c>
       <c r="E783" s="7" t="str">
-        <f>VLOOKUP(B783,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G783" s="13" t="str">
@@ -23264,7 +23266,7 @@
         <v>Out</v>
       </c>
       <c r="I783" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1436</v>
       </c>
     </row>
@@ -23282,7 +23284,7 @@
         <v>67</v>
       </c>
       <c r="E784" s="7" t="str">
-        <f>VLOOKUP(B784,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G784" s="13" t="str">
@@ -23290,7 +23292,7 @@
         <v>Out</v>
       </c>
       <c r="I784" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-203</v>
       </c>
     </row>
@@ -23308,7 +23310,7 @@
         <v>67</v>
       </c>
       <c r="E785" s="7" t="str">
-        <f>VLOOKUP(B785,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G785" s="13" t="str">
@@ -23316,7 +23318,7 @@
         <v>Out</v>
       </c>
       <c r="I785" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-529</v>
       </c>
     </row>
@@ -23334,7 +23336,7 @@
         <v>67</v>
       </c>
       <c r="E786" s="7" t="str">
-        <f>VLOOKUP(B786,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G786" s="13" t="str">
@@ -23342,7 +23344,7 @@
         <v>Out</v>
       </c>
       <c r="I786" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1423</v>
       </c>
     </row>
@@ -23360,7 +23362,7 @@
         <v>67</v>
       </c>
       <c r="E787" s="7" t="str">
-        <f>VLOOKUP(B787,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Household Supplies</v>
       </c>
       <c r="G787" s="13" t="str">
@@ -23368,7 +23370,7 @@
         <v>Out</v>
       </c>
       <c r="I787" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1304</v>
       </c>
     </row>
@@ -23386,7 +23388,7 @@
         <v>67</v>
       </c>
       <c r="E788" s="7" t="str">
-        <f>VLOOKUP(B788,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Household Supplies</v>
       </c>
       <c r="G788" s="13" t="str">
@@ -23394,7 +23396,7 @@
         <v>Out</v>
       </c>
       <c r="I788" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-328</v>
       </c>
     </row>
@@ -23412,7 +23414,7 @@
         <v>67</v>
       </c>
       <c r="E789" s="7" t="str">
-        <f>VLOOKUP(B789,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G789" s="13" t="str">
@@ -23420,7 +23422,7 @@
         <v>Out</v>
       </c>
       <c r="I789" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-2108</v>
       </c>
     </row>
@@ -23438,7 +23440,7 @@
         <v>67</v>
       </c>
       <c r="E790" s="7" t="str">
-        <f>VLOOKUP(B790,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Eating Out</v>
       </c>
       <c r="G790" s="13" t="str">
@@ -23446,7 +23448,7 @@
         <v>Out</v>
       </c>
       <c r="I790" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1210</v>
       </c>
     </row>
@@ -23464,7 +23466,7 @@
         <v>67</v>
       </c>
       <c r="E791" s="7" t="str">
-        <f>VLOOKUP(B791,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G791" s="13" t="str">
@@ -23472,7 +23474,7 @@
         <v>Out</v>
       </c>
       <c r="I791" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1684</v>
       </c>
     </row>
@@ -23490,7 +23492,7 @@
         <v>67</v>
       </c>
       <c r="E792" s="7" t="str">
-        <f>VLOOKUP(B792,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Eating Out</v>
       </c>
       <c r="G792" s="13" t="str">
@@ -23498,7 +23500,7 @@
         <v>Out</v>
       </c>
       <c r="I792" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-3454</v>
       </c>
     </row>
@@ -23516,7 +23518,7 @@
         <v>67</v>
       </c>
       <c r="E793" s="7" t="str">
-        <f>VLOOKUP(B793,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Household Supplies</v>
       </c>
       <c r="G793" s="13" t="str">
@@ -23524,7 +23526,7 @@
         <v>Out</v>
       </c>
       <c r="I793" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-492</v>
       </c>
     </row>
@@ -23542,7 +23544,7 @@
         <v>67</v>
       </c>
       <c r="E794" s="7" t="str">
-        <f>VLOOKUP(B794,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G794" s="13" t="str">
@@ -23550,7 +23552,7 @@
         <v>Out</v>
       </c>
       <c r="I794" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1321</v>
       </c>
     </row>
@@ -23568,7 +23570,7 @@
         <v>67</v>
       </c>
       <c r="E795" s="7" t="str">
-        <f>VLOOKUP(B795,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G795" s="13" t="str">
@@ -23576,7 +23578,7 @@
         <v>Out</v>
       </c>
       <c r="I795" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-605</v>
       </c>
     </row>
@@ -23594,7 +23596,7 @@
         <v>67</v>
       </c>
       <c r="E796" s="7" t="str">
-        <f>VLOOKUP(B796,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Fashion</v>
       </c>
       <c r="G796" s="13" t="str">
@@ -23602,7 +23604,7 @@
         <v>Out</v>
       </c>
       <c r="I796" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1089</v>
       </c>
     </row>
@@ -23620,7 +23622,7 @@
         <v>67</v>
       </c>
       <c r="E797" s="7" t="str">
-        <f>VLOOKUP(B797,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Unknown</v>
       </c>
       <c r="G797" s="13" t="str">
@@ -23628,7 +23630,7 @@
         <v>Out</v>
       </c>
       <c r="I797" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-172</v>
       </c>
     </row>
@@ -23646,7 +23648,7 @@
         <v>67</v>
       </c>
       <c r="E798" s="7" t="str">
-        <f>VLOOKUP(B798,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Other Expense</v>
       </c>
       <c r="G798" s="13" t="str">
@@ -23654,7 +23656,7 @@
         <v>Out</v>
       </c>
       <c r="I798" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-625</v>
       </c>
     </row>
@@ -23672,7 +23674,7 @@
         <v>67</v>
       </c>
       <c r="E799" s="7" t="str">
-        <f>VLOOKUP(B799,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G799" s="13" t="str">
@@ -23680,7 +23682,7 @@
         <v>Out</v>
       </c>
       <c r="I799" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1589</v>
       </c>
     </row>
@@ -23698,7 +23700,7 @@
         <v>67</v>
       </c>
       <c r="E800" s="7" t="str">
-        <f>VLOOKUP(B800,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G800" s="13" t="str">
@@ -23706,7 +23708,7 @@
         <v>Out</v>
       </c>
       <c r="I800" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-2060</v>
       </c>
     </row>
@@ -23724,7 +23726,7 @@
         <v>67</v>
       </c>
       <c r="E801" s="7" t="str">
-        <f>VLOOKUP(B801,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G801" s="13" t="str">
@@ -23732,7 +23734,7 @@
         <v>Out</v>
       </c>
       <c r="I801" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-7212</v>
       </c>
     </row>
@@ -23750,7 +23752,7 @@
         <v>67</v>
       </c>
       <c r="E802" s="7" t="str">
-        <f>VLOOKUP(B802,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G802" s="13" t="str">
@@ -23758,7 +23760,7 @@
         <v>Out</v>
       </c>
       <c r="I802" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-3633</v>
       </c>
     </row>
@@ -23776,7 +23778,7 @@
         <v>67</v>
       </c>
       <c r="E803" s="7" t="str">
-        <f>VLOOKUP(B803,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Eating Out</v>
       </c>
       <c r="G803" s="13" t="str">
@@ -23784,7 +23786,7 @@
         <v>Out</v>
       </c>
       <c r="I803" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-6762</v>
       </c>
     </row>
@@ -23802,7 +23804,7 @@
         <v>67</v>
       </c>
       <c r="E804" s="7" t="str">
-        <f>VLOOKUP(B804,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G804" s="13" t="str">
@@ -23810,7 +23812,7 @@
         <v>Out</v>
       </c>
       <c r="I804" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-265</v>
       </c>
     </row>
@@ -23828,7 +23830,7 @@
         <v>67</v>
       </c>
       <c r="E805" s="7" t="str">
-        <f>VLOOKUP(B805,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G805" s="13" t="str">
@@ -23836,7 +23838,7 @@
         <v>Out</v>
       </c>
       <c r="I805" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-619</v>
       </c>
     </row>
@@ -23854,7 +23856,7 @@
         <v>67</v>
       </c>
       <c r="E806" s="7" t="str">
-        <f>VLOOKUP(B806,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Household Supplies</v>
       </c>
       <c r="G806" s="13" t="str">
@@ -23862,7 +23864,7 @@
         <v>Out</v>
       </c>
       <c r="I806" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1239</v>
       </c>
     </row>
@@ -23880,7 +23882,7 @@
         <v>67</v>
       </c>
       <c r="E807" s="7" t="str">
-        <f>VLOOKUP(B807,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G807" s="13" t="str">
@@ -23888,7 +23890,7 @@
         <v>Out</v>
       </c>
       <c r="I807" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-523</v>
       </c>
     </row>
@@ -23906,7 +23908,7 @@
         <v>67</v>
       </c>
       <c r="E808" s="7" t="str">
-        <f>VLOOKUP(B808,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G808" s="13" t="str">
@@ -23914,7 +23916,7 @@
         <v>Out</v>
       </c>
       <c r="I808" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-2867</v>
       </c>
     </row>
@@ -23932,7 +23934,7 @@
         <v>67</v>
       </c>
       <c r="E809" s="7" t="str">
-        <f>VLOOKUP(B809,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G809" s="13" t="str">
@@ -23940,7 +23942,7 @@
         <v>Out</v>
       </c>
       <c r="I809" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1257</v>
       </c>
     </row>
@@ -23958,7 +23960,7 @@
         <v>67</v>
       </c>
       <c r="E810" s="7" t="str">
-        <f>VLOOKUP(B810,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G810" s="13" t="str">
@@ -23966,7 +23968,7 @@
         <v>Out</v>
       </c>
       <c r="I810" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1079</v>
       </c>
     </row>
@@ -23984,7 +23986,7 @@
         <v>67</v>
       </c>
       <c r="E811" s="7" t="str">
-        <f>VLOOKUP(B811,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="103"/>
         <v>Groceries</v>
       </c>
       <c r="G811" s="13" t="str">
@@ -23992,7 +23994,7 @@
         <v>Out</v>
       </c>
       <c r="I811" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-244</v>
       </c>
     </row>
@@ -24010,7 +24012,7 @@
         <v>67</v>
       </c>
       <c r="E812" s="7" t="str">
-        <f>VLOOKUP(B812,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" ref="E812:E826" si="105">VLOOKUP(B812,$K$624:$L$655,2,FALSE)</f>
         <v>Other Expense</v>
       </c>
       <c r="G812" s="13" t="str">
@@ -24018,7 +24020,7 @@
         <v>Out</v>
       </c>
       <c r="I812" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-310</v>
       </c>
     </row>
@@ -24036,7 +24038,7 @@
         <v>67</v>
       </c>
       <c r="E813" s="7" t="str">
-        <f>VLOOKUP(B813,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Utilities</v>
       </c>
       <c r="G813" s="13" t="str">
@@ -24044,7 +24046,7 @@
         <v>Out</v>
       </c>
       <c r="I813" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-9124</v>
       </c>
     </row>
@@ -24062,7 +24064,7 @@
         <v>67</v>
       </c>
       <c r="E814" s="7" t="str">
-        <f>VLOOKUP(B814,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Eating Out</v>
       </c>
       <c r="G814" s="13" t="str">
@@ -24070,7 +24072,7 @@
         <v>Out</v>
       </c>
       <c r="I814" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1109</v>
       </c>
     </row>
@@ -24088,7 +24090,7 @@
         <v>67</v>
       </c>
       <c r="E815" s="7" t="str">
-        <f>VLOOKUP(B815,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Eating Out</v>
       </c>
       <c r="G815" s="13" t="str">
@@ -24096,7 +24098,7 @@
         <v>Out</v>
       </c>
       <c r="I815" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-216</v>
       </c>
     </row>
@@ -24114,7 +24116,7 @@
         <v>67</v>
       </c>
       <c r="E816" s="7" t="str">
-        <f>VLOOKUP(B816,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Fashion</v>
       </c>
       <c r="G816" s="13" t="str">
@@ -24122,7 +24124,7 @@
         <v>Out</v>
       </c>
       <c r="I816" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-858</v>
       </c>
     </row>
@@ -24140,7 +24142,7 @@
         <v>67</v>
       </c>
       <c r="E817" s="7" t="str">
-        <f>VLOOKUP(B817,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Eating Out</v>
       </c>
       <c r="G817" s="13" t="str">
@@ -24148,7 +24150,7 @@
         <v>Out</v>
       </c>
       <c r="I817" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1089</v>
       </c>
     </row>
@@ -24166,7 +24168,7 @@
         <v>67</v>
       </c>
       <c r="E818" s="7" t="str">
-        <f>VLOOKUP(B818,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Eating Out</v>
       </c>
       <c r="G818" s="13" t="str">
@@ -24174,7 +24176,7 @@
         <v>Out</v>
       </c>
       <c r="I818" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-737</v>
       </c>
     </row>
@@ -24192,7 +24194,7 @@
         <v>67</v>
       </c>
       <c r="E819" s="7" t="str">
-        <f>VLOOKUP(B819,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G819" s="13" t="str">
@@ -24200,7 +24202,7 @@
         <v>Out</v>
       </c>
       <c r="I819" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1417</v>
       </c>
     </row>
@@ -24218,7 +24220,7 @@
         <v>67</v>
       </c>
       <c r="E820" s="7" t="str">
-        <f>VLOOKUP(B820,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G820" s="13" t="str">
@@ -24226,7 +24228,7 @@
         <v>Out</v>
       </c>
       <c r="I820" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-693</v>
       </c>
     </row>
@@ -24244,7 +24246,7 @@
         <v>67</v>
       </c>
       <c r="E821" s="7" t="str">
-        <f>VLOOKUP(B821,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G821" s="13" t="str">
@@ -24252,7 +24254,7 @@
         <v>Out</v>
       </c>
       <c r="I821" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-150</v>
       </c>
     </row>
@@ -24270,7 +24272,7 @@
         <v>67</v>
       </c>
       <c r="E822" s="7" t="str">
-        <f>VLOOKUP(B822,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G822" s="13" t="str">
@@ -24278,7 +24280,7 @@
         <v>Out</v>
       </c>
       <c r="I822" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-130</v>
       </c>
     </row>
@@ -24296,7 +24298,7 @@
         <v>67</v>
       </c>
       <c r="E823" s="7" t="str">
-        <f>VLOOKUP(B823,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G823" s="13" t="str">
@@ -24304,7 +24306,7 @@
         <v>Out</v>
       </c>
       <c r="I823" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-150</v>
       </c>
     </row>
@@ -24322,7 +24324,7 @@
         <v>67</v>
       </c>
       <c r="E824" s="7" t="str">
-        <f>VLOOKUP(B824,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G824" s="13" t="str">
@@ -24330,7 +24332,7 @@
         <v>Out</v>
       </c>
       <c r="I824" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-150</v>
       </c>
     </row>
@@ -24348,7 +24350,7 @@
         <v>67</v>
       </c>
       <c r="E825" s="7" t="str">
-        <f>VLOOKUP(B825,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Groceries</v>
       </c>
       <c r="G825" s="13" t="str">
@@ -24356,7 +24358,7 @@
         <v>Out</v>
       </c>
       <c r="I825" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-130</v>
       </c>
     </row>
@@ -24374,7 +24376,7 @@
         <v>67</v>
       </c>
       <c r="E826" s="7" t="str">
-        <f>VLOOKUP(B826,$K$624:$L$655,2,FALSE)</f>
+        <f t="shared" si="105"/>
         <v>Utilities</v>
       </c>
       <c r="G826" s="13" t="str">
@@ -24382,7 +24384,7 @@
         <v>Out</v>
       </c>
       <c r="I826" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-8176</v>
       </c>
     </row>
@@ -24400,7 +24402,7 @@
         <v>67</v>
       </c>
       <c r="E827" s="7" t="str">
-        <f>VLOOKUP(B827,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" ref="E827:E858" si="106">VLOOKUP(B827,$K$624:$L$682,2,FALSE)</f>
         <v>Other Expense</v>
       </c>
       <c r="G827" s="13" t="str">
@@ -24408,7 +24410,7 @@
         <v>Out</v>
       </c>
       <c r="I827" s="7">
-        <f t="shared" ref="I827:I853" si="101">IF(G827="Out",C827*-1,C827)</f>
+        <f t="shared" ref="I827:I853" si="107">IF(G827="Out",C827*-1,C827)</f>
         <v>-1000</v>
       </c>
     </row>
@@ -24426,7 +24428,7 @@
         <v>67</v>
       </c>
       <c r="E828" s="7" t="str">
-        <f>VLOOKUP(B828,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Groceries</v>
       </c>
       <c r="G828" s="13" t="str">
@@ -24434,7 +24436,7 @@
         <v>Out</v>
       </c>
       <c r="I828" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>-3069</v>
       </c>
     </row>
@@ -24452,7 +24454,7 @@
         <v>67</v>
       </c>
       <c r="E829" s="7" t="str">
-        <f>VLOOKUP(B829,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Groceries</v>
       </c>
       <c r="G829" s="13" t="str">
@@ -24460,7 +24462,7 @@
         <v>Out</v>
       </c>
       <c r="I829" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>-430</v>
       </c>
     </row>
@@ -24478,7 +24480,7 @@
         <v>67</v>
       </c>
       <c r="E830" s="7" t="str">
-        <f>VLOOKUP(B830,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Other Income</v>
       </c>
       <c r="G830" s="13" t="str">
@@ -24486,7 +24488,7 @@
         <v>In</v>
       </c>
       <c r="I830" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>1500</v>
       </c>
     </row>
@@ -24504,7 +24506,7 @@
         <v>67</v>
       </c>
       <c r="E831" s="7" t="str">
-        <f>VLOOKUP(B831,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Return</v>
       </c>
       <c r="G831" s="13" t="str">
@@ -24512,7 +24514,7 @@
         <v>In</v>
       </c>
       <c r="I831" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>3380</v>
       </c>
     </row>
@@ -24530,7 +24532,7 @@
         <v>67</v>
       </c>
       <c r="E832" s="7" t="str">
-        <f>VLOOKUP(B832,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Other Income</v>
       </c>
       <c r="G832" s="13" t="str">
@@ -24538,7 +24540,7 @@
         <v>In</v>
       </c>
       <c r="I832" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>1500</v>
       </c>
     </row>
@@ -24556,7 +24558,7 @@
         <v>67</v>
       </c>
       <c r="E833" s="7" t="str">
-        <f>VLOOKUP(B833,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G833" s="13" t="str">
@@ -24564,7 +24566,7 @@
         <v>In</v>
       </c>
       <c r="I833" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5000</v>
       </c>
     </row>
@@ -24582,7 +24584,7 @@
         <v>67</v>
       </c>
       <c r="E834" s="7" t="str">
-        <f>VLOOKUP(B834,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G834" s="13" t="str">
@@ -24590,7 +24592,7 @@
         <v>In</v>
       </c>
       <c r="I834" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24608,7 +24610,7 @@
         <v>67</v>
       </c>
       <c r="E835" s="7" t="str">
-        <f>VLOOKUP(B835,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G835" s="13" t="str">
@@ -24616,7 +24618,7 @@
         <v>In</v>
       </c>
       <c r="I835" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24634,7 +24636,7 @@
         <v>67</v>
       </c>
       <c r="E836" s="7" t="str">
-        <f>VLOOKUP(B836,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G836" s="13" t="str">
@@ -24642,7 +24644,7 @@
         <v>In</v>
       </c>
       <c r="I836" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24660,7 +24662,7 @@
         <v>67</v>
       </c>
       <c r="E837" s="7" t="str">
-        <f>VLOOKUP(B837,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G837" s="13" t="str">
@@ -24668,7 +24670,7 @@
         <v>In</v>
       </c>
       <c r="I837" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24686,7 +24688,7 @@
         <v>67</v>
       </c>
       <c r="E838" s="7" t="str">
-        <f>VLOOKUP(B838,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G838" s="13" t="str">
@@ -24694,7 +24696,7 @@
         <v>In</v>
       </c>
       <c r="I838" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24712,7 +24714,7 @@
         <v>67</v>
       </c>
       <c r="E839" s="7" t="str">
-        <f>VLOOKUP(B839,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G839" s="13" t="str">
@@ -24720,7 +24722,7 @@
         <v>In</v>
       </c>
       <c r="I839" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24738,7 +24740,7 @@
         <v>67</v>
       </c>
       <c r="E840" s="7" t="str">
-        <f>VLOOKUP(B840,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G840" s="13" t="str">
@@ -24746,7 +24748,7 @@
         <v>In</v>
       </c>
       <c r="I840" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>3200</v>
       </c>
     </row>
@@ -24764,7 +24766,7 @@
         <v>67</v>
       </c>
       <c r="E841" s="7" t="str">
-        <f>VLOOKUP(B841,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G841" s="13" t="str">
@@ -24772,7 +24774,7 @@
         <v>In</v>
       </c>
       <c r="I841" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24790,7 +24792,7 @@
         <v>67</v>
       </c>
       <c r="E842" s="7" t="str">
-        <f>VLOOKUP(B842,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G842" s="13" t="str">
@@ -24798,7 +24800,7 @@
         <v>In</v>
       </c>
       <c r="I842" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24816,7 +24818,7 @@
         <v>67</v>
       </c>
       <c r="E843" s="7" t="str">
-        <f>VLOOKUP(B843,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G843" s="13" t="str">
@@ -24824,7 +24826,7 @@
         <v>In</v>
       </c>
       <c r="I843" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5000</v>
       </c>
     </row>
@@ -24842,7 +24844,7 @@
         <v>67</v>
       </c>
       <c r="E844" s="7" t="str">
-        <f>VLOOKUP(B844,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G844" s="13" t="str">
@@ -24850,7 +24852,7 @@
         <v>In</v>
       </c>
       <c r="I844" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>1500</v>
       </c>
     </row>
@@ -24868,7 +24870,7 @@
         <v>67</v>
       </c>
       <c r="E845" s="7" t="str">
-        <f>VLOOKUP(B845,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G845" s="13" t="str">
@@ -24876,7 +24878,7 @@
         <v>In</v>
       </c>
       <c r="I845" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24894,7 +24896,7 @@
         <v>67</v>
       </c>
       <c r="E846" s="7" t="str">
-        <f>VLOOKUP(B846,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G846" s="13" t="str">
@@ -24902,7 +24904,7 @@
         <v>In</v>
       </c>
       <c r="I846" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24920,7 +24922,7 @@
         <v>67</v>
       </c>
       <c r="E847" s="7" t="str">
-        <f>VLOOKUP(B847,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G847" s="13" t="str">
@@ -24928,7 +24930,7 @@
         <v>In</v>
       </c>
       <c r="I847" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5000</v>
       </c>
     </row>
@@ -24946,7 +24948,7 @@
         <v>67</v>
       </c>
       <c r="E848" s="7" t="str">
-        <f>VLOOKUP(B848,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G848" s="13" t="str">
@@ -24954,7 +24956,7 @@
         <v>In</v>
       </c>
       <c r="I848" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5000</v>
       </c>
     </row>
@@ -24972,7 +24974,7 @@
         <v>67</v>
       </c>
       <c r="E849" s="7" t="str">
-        <f>VLOOKUP(B849,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G849" s="13" t="str">
@@ -24980,7 +24982,7 @@
         <v>In</v>
       </c>
       <c r="I849" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -24998,7 +25000,7 @@
         <v>67</v>
       </c>
       <c r="E850" s="7" t="str">
-        <f>VLOOKUP(B850,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G850" s="13" t="str">
@@ -25006,7 +25008,7 @@
         <v>In</v>
       </c>
       <c r="I850" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>10000</v>
       </c>
     </row>
@@ -25024,7 +25026,7 @@
         <v>67</v>
       </c>
       <c r="E851" s="7" t="str">
-        <f>VLOOKUP(B851,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G851" s="13" t="str">
@@ -25032,7 +25034,7 @@
         <v>In</v>
       </c>
       <c r="I851" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5000</v>
       </c>
     </row>
@@ -25050,7 +25052,7 @@
         <v>67</v>
       </c>
       <c r="E852" s="7" t="str">
-        <f>VLOOKUP(B852,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G852" s="13" t="str">
@@ -25058,7 +25060,7 @@
         <v>In</v>
       </c>
       <c r="I852" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>9000</v>
       </c>
     </row>
@@ -25076,7 +25078,7 @@
         <v>67</v>
       </c>
       <c r="E853" s="7" t="str">
-        <f>VLOOKUP(B853,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Transfer In</v>
       </c>
       <c r="G853" s="13" t="str">
@@ -25084,7 +25086,7 @@
         <v>In</v>
       </c>
       <c r="I853" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>3000</v>
       </c>
     </row>
@@ -25102,7 +25104,7 @@
         <v>67</v>
       </c>
       <c r="E854" s="7" t="str">
-        <f>VLOOKUP(B854,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Bonus</v>
       </c>
       <c r="G854" s="13" t="str">
@@ -25110,7 +25112,7 @@
         <v>In</v>
       </c>
       <c r="I854" s="7">
-        <f t="shared" ref="I854" si="102">IF(G854="Out",C854*-1,C854)</f>
+        <f t="shared" ref="I854" si="108">IF(G854="Out",C854*-1,C854)</f>
         <v>406</v>
       </c>
     </row>
@@ -25128,7 +25130,7 @@
         <v>67</v>
       </c>
       <c r="E855" s="7" t="str">
-        <f>VLOOKUP(B855,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Bonus</v>
       </c>
       <c r="G855" s="13" t="str">
@@ -25136,7 +25138,7 @@
         <v>In</v>
       </c>
       <c r="I855" s="7">
-        <f t="shared" ref="I855:I860" si="103">IF(G855="Out",C855*-1,C855)</f>
+        <f t="shared" ref="I855:I860" si="109">IF(G855="Out",C855*-1,C855)</f>
         <v>5800</v>
       </c>
     </row>
@@ -25154,7 +25156,7 @@
         <v>67</v>
       </c>
       <c r="E856" s="7" t="str">
-        <f>VLOOKUP(B856,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Bonus</v>
       </c>
       <c r="G856" s="13" t="str">
@@ -25162,7 +25164,7 @@
         <v>In</v>
       </c>
       <c r="I856" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1056</v>
       </c>
     </row>
@@ -25180,7 +25182,7 @@
         <v>67</v>
       </c>
       <c r="E857" s="7" t="str">
-        <f>VLOOKUP(B857,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Bonus</v>
       </c>
       <c r="G857" s="13" t="str">
@@ -25188,7 +25190,7 @@
         <v>In</v>
       </c>
       <c r="I857" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1258</v>
       </c>
     </row>
@@ -25206,7 +25208,7 @@
         <v>67</v>
       </c>
       <c r="E858" s="7" t="str">
-        <f>VLOOKUP(B858,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="106"/>
         <v>Bonus</v>
       </c>
       <c r="G858" s="13" t="str">
@@ -25214,7 +25216,7 @@
         <v>In</v>
       </c>
       <c r="I858" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1848</v>
       </c>
     </row>
@@ -25232,7 +25234,7 @@
         <v>67</v>
       </c>
       <c r="E859" s="7" t="str">
-        <f>VLOOKUP(B859,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" ref="E859:E890" si="110">VLOOKUP(B859,$K$624:$L$682,2,FALSE)</f>
         <v>Bonus</v>
       </c>
       <c r="G859" s="13" t="str">
@@ -25240,7 +25242,7 @@
         <v>In</v>
       </c>
       <c r="I859" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>2953</v>
       </c>
     </row>
@@ -25258,7 +25260,7 @@
         <v>67</v>
       </c>
       <c r="E860" s="7" t="str">
-        <f>VLOOKUP(B860,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Bonus</v>
       </c>
       <c r="G860" s="13" t="str">
@@ -25266,7 +25268,7 @@
         <v>In</v>
       </c>
       <c r="I860" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1716</v>
       </c>
     </row>
@@ -25284,7 +25286,7 @@
         <v>67</v>
       </c>
       <c r="E861" s="7" t="str">
-        <f>VLOOKUP(B861,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Bonus</v>
       </c>
       <c r="G861" s="13" t="str">
@@ -25292,7 +25294,7 @@
         <v>In</v>
       </c>
       <c r="I861" s="7">
-        <f t="shared" ref="I861" si="104">IF(G861="Out",C861*-1,C861)</f>
+        <f t="shared" ref="I861" si="111">IF(G861="Out",C861*-1,C861)</f>
         <v>2704</v>
       </c>
     </row>
@@ -25310,7 +25312,7 @@
         <v>67</v>
       </c>
       <c r="E862" s="7" t="str">
-        <f>VLOOKUP(B862,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G862" s="13" t="str">
@@ -25318,7 +25320,7 @@
         <v>Out</v>
       </c>
       <c r="I862" s="7">
-        <f t="shared" ref="I862" si="105">IF(G862="Out",C862*-1,C862)</f>
+        <f t="shared" ref="I862" si="112">IF(G862="Out",C862*-1,C862)</f>
         <v>-58500</v>
       </c>
     </row>
@@ -25336,7 +25338,7 @@
         <v>67</v>
       </c>
       <c r="E863" s="7" t="str">
-        <f>VLOOKUP(B863,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G863" s="13" t="str">
@@ -25344,7 +25346,7 @@
         <v>Out</v>
       </c>
       <c r="I863" s="7">
-        <f t="shared" ref="I863:I869" si="106">IF(G863="Out",C863*-1,C863)</f>
+        <f t="shared" ref="I863:I869" si="113">IF(G863="Out",C863*-1,C863)</f>
         <v>-3300</v>
       </c>
     </row>
@@ -25362,7 +25364,7 @@
         <v>67</v>
       </c>
       <c r="E864" s="7" t="str">
-        <f>VLOOKUP(B864,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Utilities</v>
       </c>
       <c r="G864" s="13" t="str">
@@ -25370,7 +25372,7 @@
         <v>Out</v>
       </c>
       <c r="I864" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-8454</v>
       </c>
     </row>
@@ -25388,7 +25390,7 @@
         <v>67</v>
       </c>
       <c r="E865" s="7" t="str">
-        <f>VLOOKUP(B865,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G865" s="13" t="str">
@@ -25396,7 +25398,7 @@
         <v>Out</v>
       </c>
       <c r="I865" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-33616</v>
       </c>
     </row>
@@ -25414,7 +25416,7 @@
         <v>67</v>
       </c>
       <c r="E866" s="7" t="str">
-        <f>VLOOKUP(B866,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G866" s="13" t="str">
@@ -25422,7 +25424,7 @@
         <v>Out</v>
       </c>
       <c r="I866" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-660</v>
       </c>
     </row>
@@ -25440,7 +25442,7 @@
         <v>67</v>
       </c>
       <c r="E867" s="7" t="str">
-        <f>VLOOKUP(B867,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Utilities</v>
       </c>
       <c r="G867" s="13" t="str">
@@ -25448,7 +25450,7 @@
         <v>Out</v>
       </c>
       <c r="I867" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-9072</v>
       </c>
     </row>
@@ -25466,7 +25468,7 @@
         <v>67</v>
       </c>
       <c r="E868" s="7" t="str">
-        <f>VLOOKUP(B868,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G868" s="13" t="str">
@@ -25474,7 +25476,7 @@
         <v>Out</v>
       </c>
       <c r="I868" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-462</v>
       </c>
     </row>
@@ -25492,7 +25494,7 @@
         <v>67</v>
       </c>
       <c r="E869" s="7" t="str">
-        <f>VLOOKUP(B869,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Utilities</v>
       </c>
       <c r="G869" s="13" t="str">
@@ -25500,7 +25502,7 @@
         <v>Out</v>
       </c>
       <c r="I869" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>-11390</v>
       </c>
     </row>
@@ -25518,7 +25520,7 @@
         <v>67</v>
       </c>
       <c r="E870" s="7" t="str">
-        <f>VLOOKUP(B870,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer Out</v>
       </c>
       <c r="G870" s="13" t="str">
@@ -25526,7 +25528,7 @@
         <v>Out</v>
       </c>
       <c r="I870" s="7">
-        <f t="shared" ref="I870:I885" si="107">IF(G870="Out",C870*-1,C870)</f>
+        <f t="shared" ref="I870:I885" si="114">IF(G870="Out",C870*-1,C870)</f>
         <v>-410</v>
       </c>
     </row>
@@ -25544,7 +25546,7 @@
         <v>67</v>
       </c>
       <c r="E871" s="7" t="str">
-        <f>VLOOKUP(B871,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G871" s="13" t="str">
@@ -25552,7 +25554,7 @@
         <v>Out</v>
       </c>
       <c r="I871" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-680</v>
       </c>
     </row>
@@ -25570,7 +25572,7 @@
         <v>67</v>
       </c>
       <c r="E872" s="7" t="str">
-        <f>VLOOKUP(B872,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Expense</v>
       </c>
       <c r="G872" s="13" t="str">
@@ -25578,7 +25580,7 @@
         <v>Out</v>
       </c>
       <c r="I872" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-700</v>
       </c>
     </row>
@@ -25596,7 +25598,7 @@
         <v>67</v>
       </c>
       <c r="E873" s="7" t="str">
-        <f>VLOOKUP(B873,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G873" s="13" t="str">
@@ -25604,7 +25606,7 @@
         <v>Out</v>
       </c>
       <c r="I873" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-2000</v>
       </c>
     </row>
@@ -25622,7 +25624,7 @@
         <v>67</v>
       </c>
       <c r="E874" s="7" t="str">
-        <f>VLOOKUP(B874,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G874" s="13" t="str">
@@ -25630,7 +25632,7 @@
         <v>Out</v>
       </c>
       <c r="I874" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-2760</v>
       </c>
     </row>
@@ -25648,7 +25650,7 @@
         <v>67</v>
       </c>
       <c r="E875" s="7" t="str">
-        <f>VLOOKUP(B875,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G875" s="13" t="str">
@@ -25656,7 +25658,7 @@
         <v>Out</v>
       </c>
       <c r="I875" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-4210</v>
       </c>
     </row>
@@ -25674,7 +25676,7 @@
         <v>67</v>
       </c>
       <c r="E876" s="7" t="str">
-        <f>VLOOKUP(B876,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G876" s="13" t="str">
@@ -25682,7 +25684,7 @@
         <v>Out</v>
       </c>
       <c r="I876" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-800</v>
       </c>
     </row>
@@ -25700,7 +25702,7 @@
         <v>67</v>
       </c>
       <c r="E877" s="7" t="str">
-        <f>VLOOKUP(B877,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Groceries</v>
       </c>
       <c r="G877" s="13" t="str">
@@ -25708,7 +25710,7 @@
         <v>Out</v>
       </c>
       <c r="I877" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>-272</v>
       </c>
     </row>
@@ -25726,7 +25728,7 @@
         <v>67</v>
       </c>
       <c r="E878" s="7" t="str">
-        <f>VLOOKUP(B878,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G878" s="13" t="str">
@@ -25734,7 +25736,7 @@
         <v>In</v>
       </c>
       <c r="I878" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>550</v>
       </c>
     </row>
@@ -25752,7 +25754,7 @@
         <v>67</v>
       </c>
       <c r="E879" s="7" t="str">
-        <f>VLOOKUP(B879,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G879" s="13" t="str">
@@ -25760,7 +25762,7 @@
         <v>In</v>
       </c>
       <c r="I879" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>3750</v>
       </c>
     </row>
@@ -25778,7 +25780,7 @@
         <v>67</v>
       </c>
       <c r="E880" s="7" t="str">
-        <f>VLOOKUP(B880,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G880" s="13" t="str">
@@ -25786,7 +25788,7 @@
         <v>In</v>
       </c>
       <c r="I880" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>100</v>
       </c>
     </row>
@@ -25804,7 +25806,7 @@
         <v>67</v>
       </c>
       <c r="E881" s="7" t="str">
-        <f>VLOOKUP(B881,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Other Income</v>
       </c>
       <c r="G881" s="13" t="str">
@@ -25812,7 +25814,7 @@
         <v>In</v>
       </c>
       <c r="I881" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>1500</v>
       </c>
     </row>
@@ -25830,7 +25832,7 @@
         <v>67</v>
       </c>
       <c r="E882" s="7" t="str">
-        <f>VLOOKUP(B882,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G882" s="13" t="str">
@@ -25838,7 +25840,7 @@
         <v>In</v>
       </c>
       <c r="I882" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>512</v>
       </c>
     </row>
@@ -25856,7 +25858,7 @@
         <v>67</v>
       </c>
       <c r="E883" s="7" t="str">
-        <f>VLOOKUP(B883,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G883" s="13" t="str">
@@ -25864,7 +25866,7 @@
         <v>In</v>
       </c>
       <c r="I883" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>2150</v>
       </c>
     </row>
@@ -25882,7 +25884,7 @@
         <v>67</v>
       </c>
       <c r="E884" s="7" t="str">
-        <f>VLOOKUP(B884,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G884" s="13" t="str">
@@ -25890,7 +25892,7 @@
         <v>In</v>
       </c>
       <c r="I884" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>2200</v>
       </c>
     </row>
@@ -25908,7 +25910,7 @@
         <v>67</v>
       </c>
       <c r="E885" s="7" t="str">
-        <f>VLOOKUP(B885,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Return</v>
       </c>
       <c r="G885" s="13" t="str">
@@ -25916,7 +25918,7 @@
         <v>In</v>
       </c>
       <c r="I885" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>1000</v>
       </c>
     </row>
@@ -25934,7 +25936,7 @@
         <v>67</v>
       </c>
       <c r="E886" s="7" t="str">
-        <f>VLOOKUP(B886,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer In</v>
       </c>
       <c r="G886" s="13" t="str">
@@ -25942,7 +25944,7 @@
         <v>In</v>
       </c>
       <c r="I886" s="7">
-        <f t="shared" ref="I886:I895" si="108">IF(G886="Out",C886*-1,C886)</f>
+        <f t="shared" ref="I886:I895" si="115">IF(G886="Out",C886*-1,C886)</f>
         <v>1000</v>
       </c>
     </row>
@@ -25960,7 +25962,7 @@
         <v>67</v>
       </c>
       <c r="E887" s="7" t="str">
-        <f>VLOOKUP(B887,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer In</v>
       </c>
       <c r="G887" s="13" t="str">
@@ -25968,7 +25970,7 @@
         <v>In</v>
       </c>
       <c r="I887" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>3000</v>
       </c>
     </row>
@@ -25986,7 +25988,7 @@
         <v>67</v>
       </c>
       <c r="E888" s="7" t="str">
-        <f>VLOOKUP(B888,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer In</v>
       </c>
       <c r="G888" s="13" t="str">
@@ -25994,7 +25996,7 @@
         <v>In</v>
       </c>
       <c r="I888" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>60000</v>
       </c>
     </row>
@@ -26012,7 +26014,7 @@
         <v>67</v>
       </c>
       <c r="E889" s="7" t="str">
-        <f>VLOOKUP(B889,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer In</v>
       </c>
       <c r="G889" s="13" t="str">
@@ -26020,7 +26022,7 @@
         <v>In</v>
       </c>
       <c r="I889" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>3000</v>
       </c>
     </row>
@@ -26038,7 +26040,7 @@
         <v>67</v>
       </c>
       <c r="E890" s="7" t="str">
-        <f>VLOOKUP(B890,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="110"/>
         <v>Transfer In</v>
       </c>
       <c r="G890" s="13" t="str">
@@ -26046,7 +26048,7 @@
         <v>In</v>
       </c>
       <c r="I890" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>3616</v>
       </c>
     </row>
@@ -26064,7 +26066,7 @@
         <v>67</v>
       </c>
       <c r="E891" s="7" t="str">
-        <f>VLOOKUP(B891,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" ref="E891:E904" si="116">VLOOKUP(B891,$K$624:$L$682,2,FALSE)</f>
         <v>Transfer In</v>
       </c>
       <c r="G891" s="13" t="str">
@@ -26072,7 +26074,7 @@
         <v>In</v>
       </c>
       <c r="I891" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>30000</v>
       </c>
     </row>
@@ -26090,7 +26092,7 @@
         <v>67</v>
       </c>
       <c r="E892" s="7" t="str">
-        <f>VLOOKUP(B892,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G892" s="13" t="str">
@@ -26098,7 +26100,7 @@
         <v>In</v>
       </c>
       <c r="I892" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>10000</v>
       </c>
     </row>
@@ -26116,7 +26118,7 @@
         <v>67</v>
       </c>
       <c r="E893" s="7" t="str">
-        <f>VLOOKUP(B893,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G893" s="13" t="str">
@@ -26124,7 +26126,7 @@
         <v>In</v>
       </c>
       <c r="I893" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>3000</v>
       </c>
     </row>
@@ -26142,7 +26144,7 @@
         <v>67</v>
       </c>
       <c r="E894" s="7" t="str">
-        <f>VLOOKUP(B894,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G894" s="13" t="str">
@@ -26150,7 +26152,7 @@
         <v>In</v>
       </c>
       <c r="I894" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>3000</v>
       </c>
     </row>
@@ -26168,7 +26170,7 @@
         <v>67</v>
       </c>
       <c r="E895" s="7" t="str">
-        <f>VLOOKUP(B895,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G895" s="13" t="str">
@@ -26176,7 +26178,7 @@
         <v>In</v>
       </c>
       <c r="I895" s="7">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>10000</v>
       </c>
     </row>
@@ -26194,7 +26196,7 @@
         <v>67</v>
       </c>
       <c r="E896" s="7" t="str">
-        <f>VLOOKUP(B896,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G896" s="13" t="str">
@@ -26202,7 +26204,7 @@
         <v>In</v>
       </c>
       <c r="I896" s="7">
-        <f t="shared" ref="I896:I904" si="109">IF(G896="Out",C896*-1,C896)</f>
+        <f t="shared" ref="I896:I904" si="117">IF(G896="Out",C896*-1,C896)</f>
         <v>3000</v>
       </c>
     </row>
@@ -26220,7 +26222,7 @@
         <v>67</v>
       </c>
       <c r="E897" s="7" t="str">
-        <f>VLOOKUP(B897,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G897" s="13" t="str">
@@ -26228,7 +26230,7 @@
         <v>In</v>
       </c>
       <c r="I897" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>15000</v>
       </c>
     </row>
@@ -26246,7 +26248,7 @@
         <v>67</v>
       </c>
       <c r="E898" s="7" t="str">
-        <f>VLOOKUP(B898,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Transfer In</v>
       </c>
       <c r="G898" s="13" t="str">
@@ -26254,7 +26256,7 @@
         <v>In</v>
       </c>
       <c r="I898" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>3000</v>
       </c>
     </row>
@@ -26272,7 +26274,7 @@
         <v>67</v>
       </c>
       <c r="E899" s="7" t="str">
-        <f>VLOOKUP(B899,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Utilities</v>
       </c>
       <c r="G899" s="13" t="str">
@@ -26280,7 +26282,7 @@
         <v>Out</v>
       </c>
       <c r="I899" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-6192</v>
       </c>
     </row>
@@ -26298,7 +26300,7 @@
         <v>67</v>
       </c>
       <c r="E900" s="7" t="str">
-        <f>VLOOKUP(B900,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Utilities</v>
       </c>
       <c r="G900" s="13" t="str">
@@ -26306,7 +26308,7 @@
         <v>Out</v>
       </c>
       <c r="I900" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-6548</v>
       </c>
     </row>
@@ -26324,7 +26326,7 @@
         <v>67</v>
       </c>
       <c r="E901" s="7" t="str">
-        <f>VLOOKUP(B901,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Utilities</v>
       </c>
       <c r="G901" s="13" t="str">
@@ -26332,7 +26334,7 @@
         <v>Out</v>
       </c>
       <c r="I901" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-6880</v>
       </c>
     </row>
@@ -26350,7 +26352,7 @@
         <v>67</v>
       </c>
       <c r="E902" s="7" t="str">
-        <f>VLOOKUP(B902,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Groceries</v>
       </c>
       <c r="G902" s="13" t="str">
@@ -26358,7 +26360,7 @@
         <v>Out</v>
       </c>
       <c r="I902" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-521</v>
       </c>
     </row>
@@ -26376,7 +26378,7 @@
         <v>67</v>
       </c>
       <c r="E903" s="7" t="str">
-        <f>VLOOKUP(B903,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Utilities</v>
       </c>
       <c r="G903" s="13" t="str">
@@ -26384,7 +26386,7 @@
         <v>Out</v>
       </c>
       <c r="I903" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-1313</v>
       </c>
     </row>
@@ -26402,7 +26404,7 @@
         <v>67</v>
       </c>
       <c r="E904" s="7" t="str">
-        <f>VLOOKUP(B904,$K$624:$L$682,2,FALSE)</f>
+        <f t="shared" si="116"/>
         <v>Utilities</v>
       </c>
       <c r="G904" s="13" t="str">
@@ -26410,7 +26412,7 @@
         <v>Out</v>
       </c>
       <c r="I904" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>-3363</v>
       </c>
     </row>
@@ -26488,8 +26490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1F388-2AEA-466A-9E64-BD19561EE9F8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
